--- a/INTLINE/data/134/DEUSTATIS/National accounts - Compensation of employees(national concept) quarters.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - Compensation of employees(national concept) quarters.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="59">
   <si>
     <t>National accounts - Compensation of employees, wages and
 salaries (national concept): Germany, quarters, original and
@@ -124,6 +124,9 @@
     <t>2021</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>Quarter 1</t>
   </si>
   <si>
@@ -143,6 +146,9 @@
   </si>
   <si>
     <t>EUR bn</t>
+  </si>
+  <si>
+    <t>...</t>
   </si>
   <si>
     <t xml:space="preserve"> - Employers' social contributions</t>
@@ -184,7 +190,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:16:54</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:53:42</t>
   </si>
 </sst>
 </file>
@@ -749,7 +755,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="528">
+  <cellXfs count="544">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" wrapText="true"/>
@@ -1306,6 +1312,22 @@
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -1810,6 +1832,22 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -2326,6 +2364,22 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -2336,6 +2390,22 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -2869,586 +2939,604 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="276">
+      <c r="A4" t="s" s="284">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="277">
+      <c r="B4" t="s" s="285">
         <v>4</v>
       </c>
-      <c r="C4" t="s" s="278">
+      <c r="C4" t="s" s="286">
         <v>5</v>
       </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="280"/>
-      <c r="F4" s="281"/>
-      <c r="G4" t="s" s="282">
+      <c r="D4" s="287"/>
+      <c r="E4" s="288"/>
+      <c r="F4" s="289"/>
+      <c r="G4" t="s" s="290">
         <v>6</v>
       </c>
-      <c r="H4" s="283"/>
-      <c r="I4" s="284"/>
-      <c r="J4" s="285"/>
-      <c r="K4" t="s" s="286">
+      <c r="H4" s="291"/>
+      <c r="I4" s="292"/>
+      <c r="J4" s="293"/>
+      <c r="K4" t="s" s="294">
         <v>7</v>
       </c>
-      <c r="L4" s="287"/>
-      <c r="M4" s="288"/>
-      <c r="N4" s="289"/>
-      <c r="O4" t="s" s="290">
+      <c r="L4" s="295"/>
+      <c r="M4" s="296"/>
+      <c r="N4" s="297"/>
+      <c r="O4" t="s" s="298">
         <v>8</v>
       </c>
-      <c r="P4" s="291"/>
-      <c r="Q4" s="292"/>
-      <c r="R4" s="293"/>
-      <c r="S4" t="s" s="294">
+      <c r="P4" s="299"/>
+      <c r="Q4" s="300"/>
+      <c r="R4" s="301"/>
+      <c r="S4" t="s" s="302">
         <v>9</v>
       </c>
-      <c r="T4" s="295"/>
-      <c r="U4" s="296"/>
-      <c r="V4" s="297"/>
-      <c r="W4" t="s" s="298">
+      <c r="T4" s="303"/>
+      <c r="U4" s="304"/>
+      <c r="V4" s="305"/>
+      <c r="W4" t="s" s="306">
         <v>10</v>
       </c>
-      <c r="X4" s="299"/>
-      <c r="Y4" s="300"/>
-      <c r="Z4" s="301"/>
-      <c r="AA4" t="s" s="302">
+      <c r="X4" s="307"/>
+      <c r="Y4" s="308"/>
+      <c r="Z4" s="309"/>
+      <c r="AA4" t="s" s="310">
         <v>11</v>
       </c>
-      <c r="AB4" s="303"/>
-      <c r="AC4" s="304"/>
-      <c r="AD4" s="305"/>
-      <c r="AE4" t="s" s="306">
+      <c r="AB4" s="311"/>
+      <c r="AC4" s="312"/>
+      <c r="AD4" s="313"/>
+      <c r="AE4" t="s" s="314">
         <v>12</v>
       </c>
-      <c r="AF4" s="307"/>
-      <c r="AG4" s="308"/>
-      <c r="AH4" s="309"/>
-      <c r="AI4" t="s" s="310">
+      <c r="AF4" s="315"/>
+      <c r="AG4" s="316"/>
+      <c r="AH4" s="317"/>
+      <c r="AI4" t="s" s="318">
         <v>13</v>
       </c>
-      <c r="AJ4" s="311"/>
-      <c r="AK4" s="312"/>
-      <c r="AL4" s="313"/>
-      <c r="AM4" t="s" s="314">
+      <c r="AJ4" s="319"/>
+      <c r="AK4" s="320"/>
+      <c r="AL4" s="321"/>
+      <c r="AM4" t="s" s="322">
         <v>14</v>
       </c>
-      <c r="AN4" s="315"/>
-      <c r="AO4" s="316"/>
-      <c r="AP4" s="317"/>
-      <c r="AQ4" t="s" s="318">
+      <c r="AN4" s="323"/>
+      <c r="AO4" s="324"/>
+      <c r="AP4" s="325"/>
+      <c r="AQ4" t="s" s="326">
         <v>15</v>
       </c>
-      <c r="AR4" s="319"/>
-      <c r="AS4" s="320"/>
-      <c r="AT4" s="321"/>
-      <c r="AU4" t="s" s="322">
+      <c r="AR4" s="327"/>
+      <c r="AS4" s="328"/>
+      <c r="AT4" s="329"/>
+      <c r="AU4" t="s" s="330">
         <v>16</v>
       </c>
-      <c r="AV4" s="323"/>
-      <c r="AW4" s="324"/>
-      <c r="AX4" s="325"/>
-      <c r="AY4" t="s" s="326">
+      <c r="AV4" s="331"/>
+      <c r="AW4" s="332"/>
+      <c r="AX4" s="333"/>
+      <c r="AY4" t="s" s="334">
         <v>17</v>
       </c>
-      <c r="AZ4" s="327"/>
-      <c r="BA4" s="328"/>
-      <c r="BB4" s="329"/>
-      <c r="BC4" t="s" s="330">
+      <c r="AZ4" s="335"/>
+      <c r="BA4" s="336"/>
+      <c r="BB4" s="337"/>
+      <c r="BC4" t="s" s="338">
         <v>18</v>
       </c>
-      <c r="BD4" s="331"/>
-      <c r="BE4" s="332"/>
-      <c r="BF4" s="333"/>
-      <c r="BG4" t="s" s="334">
+      <c r="BD4" s="339"/>
+      <c r="BE4" s="340"/>
+      <c r="BF4" s="341"/>
+      <c r="BG4" t="s" s="342">
         <v>19</v>
       </c>
-      <c r="BH4" s="335"/>
-      <c r="BI4" s="336"/>
-      <c r="BJ4" s="337"/>
-      <c r="BK4" t="s" s="338">
+      <c r="BH4" s="343"/>
+      <c r="BI4" s="344"/>
+      <c r="BJ4" s="345"/>
+      <c r="BK4" t="s" s="346">
         <v>20</v>
       </c>
-      <c r="BL4" s="339"/>
-      <c r="BM4" s="340"/>
-      <c r="BN4" s="341"/>
-      <c r="BO4" t="s" s="342">
+      <c r="BL4" s="347"/>
+      <c r="BM4" s="348"/>
+      <c r="BN4" s="349"/>
+      <c r="BO4" t="s" s="350">
         <v>21</v>
       </c>
-      <c r="BP4" s="343"/>
-      <c r="BQ4" s="344"/>
-      <c r="BR4" s="345"/>
-      <c r="BS4" t="s" s="346">
+      <c r="BP4" s="351"/>
+      <c r="BQ4" s="352"/>
+      <c r="BR4" s="353"/>
+      <c r="BS4" t="s" s="354">
         <v>22</v>
       </c>
-      <c r="BT4" s="347"/>
-      <c r="BU4" s="348"/>
-      <c r="BV4" s="349"/>
-      <c r="BW4" t="s" s="350">
+      <c r="BT4" s="355"/>
+      <c r="BU4" s="356"/>
+      <c r="BV4" s="357"/>
+      <c r="BW4" t="s" s="358">
         <v>23</v>
       </c>
-      <c r="BX4" s="351"/>
-      <c r="BY4" s="352"/>
-      <c r="BZ4" s="353"/>
-      <c r="CA4" t="s" s="354">
+      <c r="BX4" s="359"/>
+      <c r="BY4" s="360"/>
+      <c r="BZ4" s="361"/>
+      <c r="CA4" t="s" s="362">
         <v>24</v>
       </c>
-      <c r="CB4" s="355"/>
-      <c r="CC4" s="356"/>
-      <c r="CD4" s="357"/>
-      <c r="CE4" t="s" s="358">
+      <c r="CB4" s="363"/>
+      <c r="CC4" s="364"/>
+      <c r="CD4" s="365"/>
+      <c r="CE4" t="s" s="366">
         <v>25</v>
       </c>
-      <c r="CF4" s="359"/>
-      <c r="CG4" s="360"/>
-      <c r="CH4" s="361"/>
-      <c r="CI4" t="s" s="362">
+      <c r="CF4" s="367"/>
+      <c r="CG4" s="368"/>
+      <c r="CH4" s="369"/>
+      <c r="CI4" t="s" s="370">
         <v>26</v>
       </c>
-      <c r="CJ4" s="363"/>
-      <c r="CK4" s="364"/>
-      <c r="CL4" s="365"/>
-      <c r="CM4" t="s" s="366">
+      <c r="CJ4" s="371"/>
+      <c r="CK4" s="372"/>
+      <c r="CL4" s="373"/>
+      <c r="CM4" t="s" s="374">
         <v>27</v>
       </c>
-      <c r="CN4" s="367"/>
-      <c r="CO4" s="368"/>
-      <c r="CP4" s="369"/>
-      <c r="CQ4" t="s" s="370">
+      <c r="CN4" s="375"/>
+      <c r="CO4" s="376"/>
+      <c r="CP4" s="377"/>
+      <c r="CQ4" t="s" s="378">
         <v>28</v>
       </c>
-      <c r="CR4" s="371"/>
-      <c r="CS4" s="372"/>
-      <c r="CT4" s="373"/>
-      <c r="CU4" t="s" s="374">
+      <c r="CR4" s="379"/>
+      <c r="CS4" s="380"/>
+      <c r="CT4" s="381"/>
+      <c r="CU4" t="s" s="382">
         <v>29</v>
       </c>
-      <c r="CV4" s="375"/>
-      <c r="CW4" s="376"/>
-      <c r="CX4" s="377"/>
-      <c r="CY4" t="s" s="378">
+      <c r="CV4" s="383"/>
+      <c r="CW4" s="384"/>
+      <c r="CX4" s="385"/>
+      <c r="CY4" t="s" s="386">
         <v>30</v>
       </c>
-      <c r="CZ4" s="379"/>
-      <c r="DA4" s="380"/>
-      <c r="DB4" s="381"/>
-      <c r="DC4" t="s" s="382">
+      <c r="CZ4" s="387"/>
+      <c r="DA4" s="388"/>
+      <c r="DB4" s="389"/>
+      <c r="DC4" t="s" s="390">
         <v>31</v>
       </c>
-      <c r="DD4" s="383"/>
-      <c r="DE4" s="384"/>
-      <c r="DF4" s="385"/>
-      <c r="DG4" t="s" s="386">
+      <c r="DD4" s="391"/>
+      <c r="DE4" s="392"/>
+      <c r="DF4" s="393"/>
+      <c r="DG4" t="s" s="394">
         <v>32</v>
       </c>
-      <c r="DH4" s="387"/>
-      <c r="DI4" s="388"/>
-      <c r="DJ4" s="389"/>
-      <c r="DK4" t="s" s="390">
+      <c r="DH4" s="395"/>
+      <c r="DI4" s="396"/>
+      <c r="DJ4" s="397"/>
+      <c r="DK4" t="s" s="398">
         <v>33</v>
       </c>
-      <c r="DL4" s="391"/>
-      <c r="DM4" s="392"/>
-      <c r="DN4" s="393"/>
-      <c r="DO4" t="s" s="394">
+      <c r="DL4" s="399"/>
+      <c r="DM4" s="400"/>
+      <c r="DN4" s="401"/>
+      <c r="DO4" t="s" s="402">
         <v>34</v>
       </c>
-      <c r="DP4" s="395"/>
-      <c r="DQ4" s="396"/>
-      <c r="DR4" s="397"/>
-      <c r="DS4" t="s" s="398">
+      <c r="DP4" s="403"/>
+      <c r="DQ4" s="404"/>
+      <c r="DR4" s="405"/>
+      <c r="DS4" t="s" s="406">
         <v>35</v>
       </c>
-      <c r="DT4" s="399"/>
-      <c r="DU4" s="400"/>
-      <c r="DV4" s="401"/>
+      <c r="DT4" s="407"/>
+      <c r="DU4" s="408"/>
+      <c r="DV4" s="409"/>
+      <c r="DW4" t="s" s="410">
+        <v>36</v>
+      </c>
+      <c r="DX4" s="411"/>
+      <c r="DY4" s="412"/>
+      <c r="DZ4" s="413"/>
     </row>
     <row r="5">
-      <c r="A5" s="402"/>
-      <c r="B5" s="403"/>
-      <c r="C5" t="s" s="404">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s" s="405">
+      <c r="A5" s="414"/>
+      <c r="B5" s="415"/>
+      <c r="C5" t="s" s="416">
         <v>37</v>
       </c>
-      <c r="E5" t="s" s="406">
+      <c r="D5" t="s" s="417">
         <v>38</v>
       </c>
-      <c r="F5" t="s" s="407">
+      <c r="E5" t="s" s="418">
         <v>39</v>
       </c>
-      <c r="G5" t="s" s="408">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s" s="409">
+      <c r="F5" t="s" s="419">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s" s="420">
         <v>37</v>
       </c>
-      <c r="I5" t="s" s="410">
+      <c r="H5" t="s" s="421">
         <v>38</v>
       </c>
-      <c r="J5" t="s" s="411">
+      <c r="I5" t="s" s="422">
         <v>39</v>
       </c>
-      <c r="K5" t="s" s="412">
-        <v>36</v>
-      </c>
-      <c r="L5" t="s" s="413">
+      <c r="J5" t="s" s="423">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s" s="424">
         <v>37</v>
       </c>
-      <c r="M5" t="s" s="414">
+      <c r="L5" t="s" s="425">
         <v>38</v>
       </c>
-      <c r="N5" t="s" s="415">
+      <c r="M5" t="s" s="426">
         <v>39</v>
       </c>
-      <c r="O5" t="s" s="416">
-        <v>36</v>
-      </c>
-      <c r="P5" t="s" s="417">
+      <c r="N5" t="s" s="427">
+        <v>40</v>
+      </c>
+      <c r="O5" t="s" s="428">
         <v>37</v>
       </c>
-      <c r="Q5" t="s" s="418">
+      <c r="P5" t="s" s="429">
         <v>38</v>
       </c>
-      <c r="R5" t="s" s="419">
+      <c r="Q5" t="s" s="430">
         <v>39</v>
       </c>
-      <c r="S5" t="s" s="420">
-        <v>36</v>
-      </c>
-      <c r="T5" t="s" s="421">
+      <c r="R5" t="s" s="431">
+        <v>40</v>
+      </c>
+      <c r="S5" t="s" s="432">
         <v>37</v>
       </c>
-      <c r="U5" t="s" s="422">
+      <c r="T5" t="s" s="433">
         <v>38</v>
       </c>
-      <c r="V5" t="s" s="423">
+      <c r="U5" t="s" s="434">
         <v>39</v>
       </c>
-      <c r="W5" t="s" s="424">
-        <v>36</v>
-      </c>
-      <c r="X5" t="s" s="425">
+      <c r="V5" t="s" s="435">
+        <v>40</v>
+      </c>
+      <c r="W5" t="s" s="436">
         <v>37</v>
       </c>
-      <c r="Y5" t="s" s="426">
+      <c r="X5" t="s" s="437">
         <v>38</v>
       </c>
-      <c r="Z5" t="s" s="427">
+      <c r="Y5" t="s" s="438">
         <v>39</v>
       </c>
-      <c r="AA5" t="s" s="428">
-        <v>36</v>
-      </c>
-      <c r="AB5" t="s" s="429">
+      <c r="Z5" t="s" s="439">
+        <v>40</v>
+      </c>
+      <c r="AA5" t="s" s="440">
         <v>37</v>
       </c>
-      <c r="AC5" t="s" s="430">
+      <c r="AB5" t="s" s="441">
         <v>38</v>
       </c>
-      <c r="AD5" t="s" s="431">
+      <c r="AC5" t="s" s="442">
         <v>39</v>
       </c>
-      <c r="AE5" t="s" s="432">
-        <v>36</v>
-      </c>
-      <c r="AF5" t="s" s="433">
+      <c r="AD5" t="s" s="443">
+        <v>40</v>
+      </c>
+      <c r="AE5" t="s" s="444">
         <v>37</v>
       </c>
-      <c r="AG5" t="s" s="434">
+      <c r="AF5" t="s" s="445">
         <v>38</v>
       </c>
-      <c r="AH5" t="s" s="435">
+      <c r="AG5" t="s" s="446">
         <v>39</v>
       </c>
-      <c r="AI5" t="s" s="436">
-        <v>36</v>
-      </c>
-      <c r="AJ5" t="s" s="437">
+      <c r="AH5" t="s" s="447">
+        <v>40</v>
+      </c>
+      <c r="AI5" t="s" s="448">
         <v>37</v>
       </c>
-      <c r="AK5" t="s" s="438">
+      <c r="AJ5" t="s" s="449">
         <v>38</v>
       </c>
-      <c r="AL5" t="s" s="439">
+      <c r="AK5" t="s" s="450">
         <v>39</v>
       </c>
-      <c r="AM5" t="s" s="440">
-        <v>36</v>
-      </c>
-      <c r="AN5" t="s" s="441">
+      <c r="AL5" t="s" s="451">
+        <v>40</v>
+      </c>
+      <c r="AM5" t="s" s="452">
         <v>37</v>
       </c>
-      <c r="AO5" t="s" s="442">
+      <c r="AN5" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="AP5" t="s" s="443">
+      <c r="AO5" t="s" s="454">
         <v>39</v>
       </c>
-      <c r="AQ5" t="s" s="444">
-        <v>36</v>
-      </c>
-      <c r="AR5" t="s" s="445">
+      <c r="AP5" t="s" s="455">
+        <v>40</v>
+      </c>
+      <c r="AQ5" t="s" s="456">
         <v>37</v>
       </c>
-      <c r="AS5" t="s" s="446">
+      <c r="AR5" t="s" s="457">
         <v>38</v>
       </c>
-      <c r="AT5" t="s" s="447">
+      <c r="AS5" t="s" s="458">
         <v>39</v>
       </c>
-      <c r="AU5" t="s" s="448">
-        <v>36</v>
-      </c>
-      <c r="AV5" t="s" s="449">
+      <c r="AT5" t="s" s="459">
+        <v>40</v>
+      </c>
+      <c r="AU5" t="s" s="460">
         <v>37</v>
       </c>
-      <c r="AW5" t="s" s="450">
+      <c r="AV5" t="s" s="461">
         <v>38</v>
       </c>
-      <c r="AX5" t="s" s="451">
+      <c r="AW5" t="s" s="462">
         <v>39</v>
       </c>
-      <c r="AY5" t="s" s="452">
-        <v>36</v>
-      </c>
-      <c r="AZ5" t="s" s="453">
+      <c r="AX5" t="s" s="463">
+        <v>40</v>
+      </c>
+      <c r="AY5" t="s" s="464">
         <v>37</v>
       </c>
-      <c r="BA5" t="s" s="454">
+      <c r="AZ5" t="s" s="465">
         <v>38</v>
       </c>
-      <c r="BB5" t="s" s="455">
+      <c r="BA5" t="s" s="466">
         <v>39</v>
       </c>
-      <c r="BC5" t="s" s="456">
-        <v>36</v>
-      </c>
-      <c r="BD5" t="s" s="457">
+      <c r="BB5" t="s" s="467">
+        <v>40</v>
+      </c>
+      <c r="BC5" t="s" s="468">
         <v>37</v>
       </c>
-      <c r="BE5" t="s" s="458">
+      <c r="BD5" t="s" s="469">
         <v>38</v>
       </c>
-      <c r="BF5" t="s" s="459">
+      <c r="BE5" t="s" s="470">
         <v>39</v>
       </c>
-      <c r="BG5" t="s" s="460">
-        <v>36</v>
-      </c>
-      <c r="BH5" t="s" s="461">
+      <c r="BF5" t="s" s="471">
+        <v>40</v>
+      </c>
+      <c r="BG5" t="s" s="472">
         <v>37</v>
       </c>
-      <c r="BI5" t="s" s="462">
+      <c r="BH5" t="s" s="473">
         <v>38</v>
       </c>
-      <c r="BJ5" t="s" s="463">
+      <c r="BI5" t="s" s="474">
         <v>39</v>
       </c>
-      <c r="BK5" t="s" s="464">
-        <v>36</v>
-      </c>
-      <c r="BL5" t="s" s="465">
+      <c r="BJ5" t="s" s="475">
+        <v>40</v>
+      </c>
+      <c r="BK5" t="s" s="476">
         <v>37</v>
       </c>
-      <c r="BM5" t="s" s="466">
+      <c r="BL5" t="s" s="477">
         <v>38</v>
       </c>
-      <c r="BN5" t="s" s="467">
+      <c r="BM5" t="s" s="478">
         <v>39</v>
       </c>
-      <c r="BO5" t="s" s="468">
-        <v>36</v>
-      </c>
-      <c r="BP5" t="s" s="469">
+      <c r="BN5" t="s" s="479">
+        <v>40</v>
+      </c>
+      <c r="BO5" t="s" s="480">
         <v>37</v>
       </c>
-      <c r="BQ5" t="s" s="470">
+      <c r="BP5" t="s" s="481">
         <v>38</v>
       </c>
-      <c r="BR5" t="s" s="471">
+      <c r="BQ5" t="s" s="482">
         <v>39</v>
       </c>
-      <c r="BS5" t="s" s="472">
-        <v>36</v>
-      </c>
-      <c r="BT5" t="s" s="473">
+      <c r="BR5" t="s" s="483">
+        <v>40</v>
+      </c>
+      <c r="BS5" t="s" s="484">
         <v>37</v>
       </c>
-      <c r="BU5" t="s" s="474">
+      <c r="BT5" t="s" s="485">
         <v>38</v>
       </c>
-      <c r="BV5" t="s" s="475">
+      <c r="BU5" t="s" s="486">
         <v>39</v>
       </c>
-      <c r="BW5" t="s" s="476">
-        <v>36</v>
-      </c>
-      <c r="BX5" t="s" s="477">
+      <c r="BV5" t="s" s="487">
+        <v>40</v>
+      </c>
+      <c r="BW5" t="s" s="488">
         <v>37</v>
       </c>
-      <c r="BY5" t="s" s="478">
+      <c r="BX5" t="s" s="489">
         <v>38</v>
       </c>
-      <c r="BZ5" t="s" s="479">
+      <c r="BY5" t="s" s="490">
         <v>39</v>
       </c>
-      <c r="CA5" t="s" s="480">
-        <v>36</v>
-      </c>
-      <c r="CB5" t="s" s="481">
+      <c r="BZ5" t="s" s="491">
+        <v>40</v>
+      </c>
+      <c r="CA5" t="s" s="492">
         <v>37</v>
       </c>
-      <c r="CC5" t="s" s="482">
+      <c r="CB5" t="s" s="493">
         <v>38</v>
       </c>
-      <c r="CD5" t="s" s="483">
+      <c r="CC5" t="s" s="494">
         <v>39</v>
       </c>
-      <c r="CE5" t="s" s="484">
-        <v>36</v>
-      </c>
-      <c r="CF5" t="s" s="485">
+      <c r="CD5" t="s" s="495">
+        <v>40</v>
+      </c>
+      <c r="CE5" t="s" s="496">
         <v>37</v>
       </c>
-      <c r="CG5" t="s" s="486">
+      <c r="CF5" t="s" s="497">
         <v>38</v>
       </c>
-      <c r="CH5" t="s" s="487">
+      <c r="CG5" t="s" s="498">
         <v>39</v>
       </c>
-      <c r="CI5" t="s" s="488">
-        <v>36</v>
-      </c>
-      <c r="CJ5" t="s" s="489">
+      <c r="CH5" t="s" s="499">
+        <v>40</v>
+      </c>
+      <c r="CI5" t="s" s="500">
         <v>37</v>
       </c>
-      <c r="CK5" t="s" s="490">
+      <c r="CJ5" t="s" s="501">
         <v>38</v>
       </c>
-      <c r="CL5" t="s" s="491">
+      <c r="CK5" t="s" s="502">
         <v>39</v>
       </c>
-      <c r="CM5" t="s" s="492">
-        <v>36</v>
-      </c>
-      <c r="CN5" t="s" s="493">
+      <c r="CL5" t="s" s="503">
+        <v>40</v>
+      </c>
+      <c r="CM5" t="s" s="504">
         <v>37</v>
       </c>
-      <c r="CO5" t="s" s="494">
+      <c r="CN5" t="s" s="505">
         <v>38</v>
       </c>
-      <c r="CP5" t="s" s="495">
+      <c r="CO5" t="s" s="506">
         <v>39</v>
       </c>
-      <c r="CQ5" t="s" s="496">
-        <v>36</v>
-      </c>
-      <c r="CR5" t="s" s="497">
+      <c r="CP5" t="s" s="507">
+        <v>40</v>
+      </c>
+      <c r="CQ5" t="s" s="508">
         <v>37</v>
       </c>
-      <c r="CS5" t="s" s="498">
+      <c r="CR5" t="s" s="509">
         <v>38</v>
       </c>
-      <c r="CT5" t="s" s="499">
+      <c r="CS5" t="s" s="510">
         <v>39</v>
       </c>
-      <c r="CU5" t="s" s="500">
-        <v>36</v>
-      </c>
-      <c r="CV5" t="s" s="501">
+      <c r="CT5" t="s" s="511">
+        <v>40</v>
+      </c>
+      <c r="CU5" t="s" s="512">
         <v>37</v>
       </c>
-      <c r="CW5" t="s" s="502">
+      <c r="CV5" t="s" s="513">
         <v>38</v>
       </c>
-      <c r="CX5" t="s" s="503">
+      <c r="CW5" t="s" s="514">
         <v>39</v>
       </c>
-      <c r="CY5" t="s" s="504">
-        <v>36</v>
-      </c>
-      <c r="CZ5" t="s" s="505">
+      <c r="CX5" t="s" s="515">
+        <v>40</v>
+      </c>
+      <c r="CY5" t="s" s="516">
         <v>37</v>
       </c>
-      <c r="DA5" t="s" s="506">
+      <c r="CZ5" t="s" s="517">
         <v>38</v>
       </c>
-      <c r="DB5" t="s" s="507">
+      <c r="DA5" t="s" s="518">
         <v>39</v>
       </c>
-      <c r="DC5" t="s" s="508">
-        <v>36</v>
-      </c>
-      <c r="DD5" t="s" s="509">
+      <c r="DB5" t="s" s="519">
+        <v>40</v>
+      </c>
+      <c r="DC5" t="s" s="520">
         <v>37</v>
       </c>
-      <c r="DE5" t="s" s="510">
+      <c r="DD5" t="s" s="521">
         <v>38</v>
       </c>
-      <c r="DF5" t="s" s="511">
+      <c r="DE5" t="s" s="522">
         <v>39</v>
       </c>
-      <c r="DG5" t="s" s="512">
-        <v>36</v>
-      </c>
-      <c r="DH5" t="s" s="513">
+      <c r="DF5" t="s" s="523">
+        <v>40</v>
+      </c>
+      <c r="DG5" t="s" s="524">
         <v>37</v>
       </c>
-      <c r="DI5" t="s" s="514">
+      <c r="DH5" t="s" s="525">
         <v>38</v>
       </c>
-      <c r="DJ5" t="s" s="515">
+      <c r="DI5" t="s" s="526">
         <v>39</v>
       </c>
-      <c r="DK5" t="s" s="516">
-        <v>36</v>
-      </c>
-      <c r="DL5" t="s" s="517">
+      <c r="DJ5" t="s" s="527">
+        <v>40</v>
+      </c>
+      <c r="DK5" t="s" s="528">
         <v>37</v>
       </c>
-      <c r="DM5" t="s" s="518">
+      <c r="DL5" t="s" s="529">
         <v>38</v>
       </c>
-      <c r="DN5" t="s" s="519">
+      <c r="DM5" t="s" s="530">
         <v>39</v>
       </c>
-      <c r="DO5" t="s" s="520">
-        <v>36</v>
-      </c>
-      <c r="DP5" t="s" s="521">
+      <c r="DN5" t="s" s="531">
+        <v>40</v>
+      </c>
+      <c r="DO5" t="s" s="532">
         <v>37</v>
       </c>
-      <c r="DQ5" t="s" s="522">
+      <c r="DP5" t="s" s="533">
         <v>38</v>
       </c>
-      <c r="DR5" t="s" s="523">
+      <c r="DQ5" t="s" s="534">
         <v>39</v>
       </c>
-      <c r="DS5" t="s" s="524">
-        <v>36</v>
-      </c>
-      <c r="DT5" t="s" s="525">
+      <c r="DR5" t="s" s="535">
+        <v>40</v>
+      </c>
+      <c r="DS5" t="s" s="536">
         <v>37</v>
       </c>
-      <c r="DU5" t="s" s="526">
+      <c r="DT5" t="s" s="537">
         <v>38</v>
       </c>
-      <c r="DV5" t="s" s="527">
+      <c r="DU5" t="s" s="538">
         <v>39</v>
+      </c>
+      <c r="DV5" t="s" s="539">
+        <v>40</v>
+      </c>
+      <c r="DW5" t="s" s="540">
+        <v>37</v>
+      </c>
+      <c r="DX5" t="s" s="541">
+        <v>38</v>
+      </c>
+      <c r="DY5" t="s" s="542">
+        <v>39</v>
+      </c>
+      <c r="DZ5" t="s" s="543">
+        <v>40</v>
       </c>
     </row>
     <row r="6" ht="33.75" customHeight="true">
       <c r="A6" t="s" s="15">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="n" s="11">
         <v>190.197</v>
@@ -3811,24 +3899,36 @@
         <v>509.068</v>
       </c>
       <c r="DS7" t="n" s="11">
-        <v>445.275</v>
+        <v>445.028</v>
       </c>
       <c r="DT7" t="n" s="11">
-        <v>463.183</v>
+        <v>463.312</v>
       </c>
       <c r="DU7" t="n" s="11">
-        <v>479.113</v>
+        <v>479.003</v>
       </c>
       <c r="DV7" t="n" s="11">
-        <v>532.842</v>
+        <v>534.035</v>
+      </c>
+      <c r="DW7" t="n" s="11">
+        <v>474.544</v>
+      </c>
+      <c r="DX7" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY7" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ7" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s" s="14">
         <v>43</v>
-      </c>
-      <c r="B8" t="s" s="14">
-        <v>42</v>
       </c>
       <c r="C8" t="n" s="11">
         <v>33.698</v>
@@ -4191,24 +4291,36 @@
         <v>91.154</v>
       </c>
       <c r="DS8" t="n" s="11">
-        <v>83.256</v>
+        <v>83.213</v>
       </c>
       <c r="DT8" t="n" s="11">
-        <v>85.955</v>
+        <v>85.904</v>
       </c>
       <c r="DU8" t="n" s="11">
-        <v>85.52</v>
+        <v>85.477</v>
       </c>
       <c r="DV8" t="n" s="11">
-        <v>94.508</v>
+        <v>94.756</v>
+      </c>
+      <c r="DW8" t="n" s="11">
+        <v>86.12</v>
+      </c>
+      <c r="DX8" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY8" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ8" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="n" s="11">
         <v>156.499</v>
@@ -4571,24 +4683,36 @@
         <v>417.914</v>
       </c>
       <c r="DS9" t="n" s="11">
-        <v>362.019</v>
+        <v>361.815</v>
       </c>
       <c r="DT9" t="n" s="11">
-        <v>377.228</v>
+        <v>377.408</v>
       </c>
       <c r="DU9" t="n" s="11">
-        <v>393.593</v>
+        <v>393.526</v>
       </c>
       <c r="DV9" t="n" s="11">
-        <v>438.334</v>
+        <v>439.279</v>
+      </c>
+      <c r="DW9" t="n" s="11">
+        <v>388.424</v>
+      </c>
+      <c r="DX9" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY9" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ9" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="10">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="n" s="11">
         <v>42.587</v>
@@ -4951,24 +5075,36 @@
         <v>135.859</v>
       </c>
       <c r="DS10" t="n" s="11">
-        <v>116.939</v>
+        <v>116.767</v>
       </c>
       <c r="DT10" t="n" s="11">
-        <v>126.265</v>
+        <v>126.129</v>
       </c>
       <c r="DU10" t="n" s="11">
-        <v>121.457</v>
+        <v>121.289</v>
       </c>
       <c r="DV10" t="n" s="11">
-        <v>142.302</v>
+        <v>142.55</v>
+      </c>
+      <c r="DW10" t="n" s="11">
+        <v>126.734</v>
+      </c>
+      <c r="DX10" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY10" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ10" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="n" s="11">
         <v>21.074</v>
@@ -5331,24 +5467,36 @@
         <v>67.463</v>
       </c>
       <c r="DS11" t="n" s="11">
-        <v>60.585</v>
+        <v>60.584</v>
       </c>
       <c r="DT11" t="n" s="11">
         <v>64.417</v>
       </c>
       <c r="DU11" t="n" s="11">
-        <v>64.739</v>
+        <v>64.737</v>
       </c>
       <c r="DV11" t="n" s="11">
-        <v>71.806</v>
+        <v>71.966</v>
+      </c>
+      <c r="DW11" t="n" s="11">
+        <v>65.577</v>
+      </c>
+      <c r="DX11" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY11" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ11" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="10">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="n" s="11">
         <v>21.513</v>
@@ -5711,24 +5859,36 @@
         <v>68.396</v>
       </c>
       <c r="DS12" t="n" s="11">
-        <v>56.354</v>
+        <v>56.183</v>
       </c>
       <c r="DT12" t="n" s="11">
-        <v>61.848</v>
+        <v>61.712</v>
       </c>
       <c r="DU12" t="n" s="11">
-        <v>56.718</v>
+        <v>56.552</v>
       </c>
       <c r="DV12" t="n" s="11">
-        <v>70.496</v>
+        <v>70.584</v>
+      </c>
+      <c r="DW12" t="n" s="11">
+        <v>61.157</v>
+      </c>
+      <c r="DX12" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY12" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ12" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="10">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="n" s="11">
         <v>113.912</v>
@@ -6091,24 +6251,36 @@
         <v>282.055</v>
       </c>
       <c r="DS13" t="n" s="11">
-        <v>245.08</v>
+        <v>245.048</v>
       </c>
       <c r="DT13" t="n" s="11">
-        <v>250.963</v>
+        <v>251.279</v>
       </c>
       <c r="DU13" t="n" s="11">
-        <v>272.136</v>
+        <v>272.237</v>
       </c>
       <c r="DV13" t="n" s="11">
-        <v>296.032</v>
+        <v>296.729</v>
+      </c>
+      <c r="DW13" t="n" s="11">
+        <v>261.69</v>
+      </c>
+      <c r="DX13" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY13" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ13" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="14">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C14" t="n" s="11">
         <v>1786.0</v>
@@ -6471,24 +6643,36 @@
         <v>4149.0</v>
       </c>
       <c r="DS14" t="n" s="11">
-        <v>3670.0</v>
+        <v>3668.0</v>
       </c>
       <c r="DT14" t="n" s="11">
-        <v>3794.0</v>
+        <v>3795.0</v>
       </c>
       <c r="DU14" t="n" s="11">
-        <v>3897.0</v>
+        <v>3896.0</v>
       </c>
       <c r="DV14" t="n" s="11">
-        <v>4293.0</v>
+        <v>4303.0</v>
+      </c>
+      <c r="DW14" t="n" s="11">
+        <v>3844.0</v>
+      </c>
+      <c r="DX14" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY14" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ14" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="10">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s" s="14">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C15" t="n" s="11">
         <v>1470.0</v>
@@ -6851,24 +7035,36 @@
         <v>3406.0</v>
       </c>
       <c r="DS15" t="n" s="11">
-        <v>2984.0</v>
+        <v>2982.0</v>
       </c>
       <c r="DT15" t="n" s="11">
-        <v>3090.0</v>
+        <v>3091.0</v>
       </c>
       <c r="DU15" t="n" s="11">
         <v>3201.0</v>
       </c>
       <c r="DV15" t="n" s="11">
-        <v>3531.0</v>
+        <v>3540.0</v>
+      </c>
+      <c r="DW15" t="n" s="11">
+        <v>3146.0</v>
+      </c>
+      <c r="DX15" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY15" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ15" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="10">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s" s="14">
         <v>52</v>
-      </c>
-      <c r="B16" t="s" s="14">
-        <v>50</v>
       </c>
       <c r="C16" t="n" s="11">
         <v>1070.0</v>
@@ -7234,203 +7430,215 @@
         <v>2020.0</v>
       </c>
       <c r="DT16" t="n" s="11">
-        <v>2056.0</v>
+        <v>2058.0</v>
       </c>
       <c r="DU16" t="n" s="11">
-        <v>2213.0</v>
+        <v>2214.0</v>
       </c>
       <c r="DV16" t="n" s="11">
-        <v>2385.0</v>
+        <v>2391.0</v>
+      </c>
+      <c r="DW16" t="n" s="11">
+        <v>2120.0</v>
+      </c>
+      <c r="DX16" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY16" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ16" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="17" ht="33.75" customHeight="true">
       <c r="A17" t="s" s="15">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" t="n" s="11">
-        <v>205.893</v>
+        <v>205.899</v>
       </c>
       <c r="D18" t="n" s="11">
-        <v>214.81</v>
+        <v>214.804</v>
       </c>
       <c r="E18" t="n" s="11">
-        <v>215.949</v>
+        <v>215.941</v>
       </c>
       <c r="F18" t="n" s="11">
-        <v>219.158</v>
+        <v>219.165</v>
       </c>
       <c r="G18" t="n" s="11">
-        <v>225.53</v>
+        <v>225.537</v>
       </c>
       <c r="H18" t="n" s="11">
-        <v>229.877</v>
+        <v>229.876</v>
       </c>
       <c r="I18" t="n" s="11">
-        <v>236.961</v>
+        <v>236.948</v>
       </c>
       <c r="J18" t="n" s="11">
-        <v>235.367</v>
+        <v>235.375</v>
       </c>
       <c r="K18" t="n" s="11">
-        <v>233.799</v>
+        <v>233.806</v>
       </c>
       <c r="L18" t="n" s="11">
-        <v>237.023</v>
+        <v>237.027</v>
       </c>
       <c r="M18" t="n" s="11">
-        <v>238.462</v>
+        <v>238.443</v>
       </c>
       <c r="N18" t="n" s="11">
-        <v>240.073</v>
+        <v>240.082</v>
       </c>
       <c r="O18" t="n" s="11">
-        <v>242.509</v>
+        <v>242.516</v>
       </c>
       <c r="P18" t="n" s="11">
-        <v>241.521</v>
+        <v>241.526</v>
       </c>
       <c r="Q18" t="n" s="11">
-        <v>243.669</v>
+        <v>243.648</v>
       </c>
       <c r="R18" t="n" s="11">
-        <v>246.896</v>
+        <v>246.904</v>
       </c>
       <c r="S18" t="n" s="11">
-        <v>248.938</v>
+        <v>248.944</v>
       </c>
       <c r="T18" t="n" s="11">
-        <v>251.561</v>
+        <v>251.569</v>
       </c>
       <c r="U18" t="n" s="11">
-        <v>253.566</v>
+        <v>253.545</v>
       </c>
       <c r="V18" t="n" s="11">
-        <v>255.365</v>
+        <v>255.371</v>
       </c>
       <c r="W18" t="n" s="11">
-        <v>254.04</v>
+        <v>254.043</v>
       </c>
       <c r="X18" t="n" s="11">
-        <v>253.367</v>
+        <v>253.376</v>
       </c>
       <c r="Y18" t="n" s="11">
+        <v>255.303</v>
+      </c>
+      <c r="Z18" t="n" s="11">
+        <v>255.879</v>
+      </c>
+      <c r="AA18" t="n" s="11">
         <v>255.318</v>
       </c>
-      <c r="Z18" t="n" s="11">
-        <v>255.877</v>
-      </c>
-      <c r="AA18" t="n" s="11">
-        <v>255.317</v>
-      </c>
       <c r="AB18" t="n" s="11">
-        <v>254.936</v>
+        <v>254.946</v>
       </c>
       <c r="AC18" t="n" s="11">
-        <v>255.157</v>
+        <v>255.149</v>
       </c>
       <c r="AD18" t="n" s="11">
-        <v>257.016</v>
+        <v>257.015</v>
       </c>
       <c r="AE18" t="n" s="11">
-        <v>257.712</v>
+        <v>257.71</v>
       </c>
       <c r="AF18" t="n" s="11">
-        <v>260.233</v>
+        <v>260.239</v>
       </c>
       <c r="AG18" t="n" s="11">
-        <v>262.042</v>
+        <v>262.041</v>
       </c>
       <c r="AH18" t="n" s="11">
-        <v>264.366</v>
+        <v>264.362</v>
       </c>
       <c r="AI18" t="n" s="11">
-        <v>264.349</v>
+        <v>264.348</v>
       </c>
       <c r="AJ18" t="n" s="11">
-        <v>268.271</v>
+        <v>268.279</v>
       </c>
       <c r="AK18" t="n" s="11">
-        <v>269.833</v>
+        <v>269.832</v>
       </c>
       <c r="AL18" t="n" s="11">
-        <v>271.916</v>
+        <v>271.911</v>
       </c>
       <c r="AM18" t="n" s="11">
         <v>276.115</v>
       </c>
       <c r="AN18" t="n" s="11">
-        <v>278.342</v>
+        <v>278.347</v>
       </c>
       <c r="AO18" t="n" s="11">
-        <v>280.67</v>
+        <v>280.669</v>
       </c>
       <c r="AP18" t="n" s="11">
-        <v>282.285</v>
+        <v>282.28</v>
       </c>
       <c r="AQ18" t="n" s="11">
         <v>282.591</v>
       </c>
       <c r="AR18" t="n" s="11">
-        <v>283.108</v>
+        <v>283.111</v>
       </c>
       <c r="AS18" t="n" s="11">
-        <v>283.359</v>
+        <v>283.357</v>
       </c>
       <c r="AT18" t="n" s="11">
-        <v>285.991</v>
+        <v>285.989</v>
       </c>
       <c r="AU18" t="n" s="11">
         <v>284.589</v>
       </c>
       <c r="AV18" t="n" s="11">
-        <v>284.421</v>
+        <v>284.422</v>
       </c>
       <c r="AW18" t="n" s="11">
-        <v>286.303</v>
+        <v>286.302</v>
       </c>
       <c r="AX18" t="n" s="11">
-        <v>286.891</v>
+        <v>286.89</v>
       </c>
       <c r="AY18" t="n" s="11">
-        <v>286.005</v>
+        <v>286.006</v>
       </c>
       <c r="AZ18" t="n" s="11">
         <v>285.213</v>
       </c>
       <c r="BA18" t="n" s="11">
-        <v>287.555</v>
+        <v>287.554</v>
       </c>
       <c r="BB18" t="n" s="11">
-        <v>287.148</v>
+        <v>287.147</v>
       </c>
       <c r="BC18" t="n" s="11">
-        <v>287.898</v>
+        <v>287.897</v>
       </c>
       <c r="BD18" t="n" s="11">
-        <v>287.405</v>
+        <v>287.406</v>
       </c>
       <c r="BE18" t="n" s="11">
-        <v>287.432</v>
+        <v>287.431</v>
       </c>
       <c r="BF18" t="n" s="11">
         <v>287.275</v>
       </c>
       <c r="BG18" t="n" s="11">
-        <v>287.369</v>
+        <v>287.368</v>
       </c>
       <c r="BH18" t="n" s="11">
         <v>286.829</v>
       </c>
       <c r="BI18" t="n" s="11">
-        <v>286.956</v>
+        <v>286.957</v>
       </c>
       <c r="BJ18" t="n" s="11">
         <v>287.804</v>
@@ -7439,10 +7647,10 @@
         <v>289.021</v>
       </c>
       <c r="BL18" t="n" s="11">
-        <v>290.998</v>
+        <v>290.999</v>
       </c>
       <c r="BM18" t="n" s="11">
-        <v>294.639</v>
+        <v>294.638</v>
       </c>
       <c r="BN18" t="n" s="11">
         <v>295.217</v>
@@ -7460,357 +7668,369 @@
         <v>304.574</v>
       </c>
       <c r="BS18" t="n" s="11">
-        <v>308.962</v>
+        <v>308.964</v>
       </c>
       <c r="BT18" t="n" s="11">
-        <v>311.772</v>
+        <v>311.776</v>
       </c>
       <c r="BU18" t="n" s="11">
-        <v>313.956</v>
+        <v>313.949</v>
       </c>
       <c r="BV18" t="n" s="11">
-        <v>316.529</v>
+        <v>316.53</v>
       </c>
       <c r="BW18" t="n" s="11">
-        <v>313.951</v>
+        <v>313.954</v>
       </c>
       <c r="BX18" t="n" s="11">
-        <v>312.907</v>
+        <v>312.914</v>
       </c>
       <c r="BY18" t="n" s="11">
-        <v>314.982</v>
+        <v>314.968</v>
       </c>
       <c r="BZ18" t="n" s="11">
-        <v>316.19</v>
+        <v>316.192</v>
       </c>
       <c r="CA18" t="n" s="11">
-        <v>319.296</v>
+        <v>319.304</v>
       </c>
       <c r="CB18" t="n" s="11">
-        <v>321.991</v>
+        <v>322.001</v>
       </c>
       <c r="CC18" t="n" s="11">
-        <v>325.473</v>
+        <v>325.452</v>
       </c>
       <c r="CD18" t="n" s="11">
-        <v>328.649</v>
+        <v>328.652</v>
       </c>
       <c r="CE18" t="n" s="11">
-        <v>333.53</v>
+        <v>333.541</v>
       </c>
       <c r="CF18" t="n" s="11">
-        <v>337.317</v>
+        <v>337.329</v>
       </c>
       <c r="CG18" t="n" s="11">
-        <v>339.379</v>
+        <v>339.359</v>
       </c>
       <c r="CH18" t="n" s="11">
-        <v>341.968</v>
+        <v>341.965</v>
       </c>
       <c r="CI18" t="n" s="11">
-        <v>346.351</v>
+        <v>346.37</v>
       </c>
       <c r="CJ18" t="n" s="11">
-        <v>350.956</v>
+        <v>350.97</v>
       </c>
       <c r="CK18" t="n" s="11">
-        <v>352.989</v>
+        <v>352.97</v>
       </c>
       <c r="CL18" t="n" s="11">
-        <v>355.594</v>
+        <v>355.58</v>
       </c>
       <c r="CM18" t="n" s="11">
-        <v>356.766</v>
+        <v>356.792</v>
       </c>
       <c r="CN18" t="n" s="11">
-        <v>360.117</v>
+        <v>360.136</v>
       </c>
       <c r="CO18" t="n" s="11">
-        <v>363.43</v>
+        <v>363.427</v>
       </c>
       <c r="CP18" t="n" s="11">
-        <v>366.299</v>
+        <v>366.257</v>
       </c>
       <c r="CQ18" t="n" s="11">
-        <v>371.461</v>
+        <v>371.499</v>
       </c>
       <c r="CR18" t="n" s="11">
-        <v>374.317</v>
+        <v>374.336</v>
       </c>
       <c r="CS18" t="n" s="11">
-        <v>377.494</v>
+        <v>377.515</v>
       </c>
       <c r="CT18" t="n" s="11">
-        <v>380.678</v>
+        <v>380.598</v>
       </c>
       <c r="CU18" t="n" s="11">
-        <v>384.289</v>
+        <v>384.343</v>
       </c>
       <c r="CV18" t="n" s="11">
-        <v>390.016</v>
+        <v>390.036</v>
       </c>
       <c r="CW18" t="n" s="11">
-        <v>393.167</v>
+        <v>393.217</v>
       </c>
       <c r="CX18" t="n" s="11">
-        <v>397.34</v>
+        <v>397.216</v>
       </c>
       <c r="CY18" t="n" s="11">
-        <v>400.544</v>
+        <v>400.625</v>
       </c>
       <c r="CZ18" t="n" s="11">
-        <v>403.656</v>
+        <v>403.674</v>
       </c>
       <c r="DA18" t="n" s="11">
-        <v>407.794</v>
+        <v>407.864</v>
       </c>
       <c r="DB18" t="n" s="11">
-        <v>413.054</v>
+        <v>412.882</v>
       </c>
       <c r="DC18" t="n" s="11">
-        <v>417.28</v>
+        <v>417.397</v>
       </c>
       <c r="DD18" t="n" s="11">
-        <v>421.741</v>
+        <v>421.756</v>
       </c>
       <c r="DE18" t="n" s="11">
-        <v>425.718</v>
+        <v>425.809</v>
       </c>
       <c r="DF18" t="n" s="11">
-        <v>431.577</v>
+        <v>431.354</v>
       </c>
       <c r="DG18" t="n" s="11">
-        <v>435.876</v>
+        <v>436.029</v>
       </c>
       <c r="DH18" t="n" s="11">
-        <v>440.763</v>
+        <v>440.76</v>
       </c>
       <c r="DI18" t="n" s="11">
-        <v>446.54</v>
+        <v>446.676</v>
       </c>
       <c r="DJ18" t="n" s="11">
-        <v>450.478</v>
+        <v>450.19</v>
       </c>
       <c r="DK18" t="n" s="11">
-        <v>456.997</v>
+        <v>457.188</v>
       </c>
       <c r="DL18" t="n" s="11">
-        <v>462.434</v>
+        <v>462.404</v>
       </c>
       <c r="DM18" t="n" s="11">
-        <v>468.052</v>
+        <v>468.25</v>
       </c>
       <c r="DN18" t="n" s="11">
-        <v>468.044</v>
+        <v>467.684</v>
       </c>
       <c r="DO18" t="n" s="11">
-        <v>469.829</v>
+        <v>470.035</v>
       </c>
       <c r="DP18" t="n" s="11">
-        <v>448.023</v>
+        <v>447.954</v>
       </c>
       <c r="DQ18" t="n" s="11">
-        <v>464.281</v>
+        <v>464.547</v>
       </c>
       <c r="DR18" t="n" s="11">
-        <v>469.972</v>
+        <v>469.569</v>
       </c>
       <c r="DS18" t="n" s="11">
-        <v>467.963</v>
+        <v>467.931</v>
       </c>
       <c r="DT18" t="n" s="11">
-        <v>472.662</v>
+        <v>472.71</v>
       </c>
       <c r="DU18" t="n" s="11">
-        <v>487.234</v>
+        <v>487.522</v>
       </c>
       <c r="DV18" t="n" s="11">
-        <v>492.554</v>
+        <v>493.212</v>
+      </c>
+      <c r="DW18" t="n" s="11">
+        <v>498.653</v>
+      </c>
+      <c r="DX18" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY18" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ18" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s" s="14">
         <v>43</v>
       </c>
-      <c r="B19" t="s" s="14">
-        <v>42</v>
-      </c>
       <c r="C19" t="n" s="11">
-        <v>35.794</v>
+        <v>35.8</v>
       </c>
       <c r="D19" t="n" s="11">
-        <v>39.165</v>
+        <v>39.159</v>
       </c>
       <c r="E19" t="n" s="11">
-        <v>38.901</v>
+        <v>38.893</v>
       </c>
       <c r="F19" t="n" s="11">
-        <v>38.629</v>
+        <v>38.636</v>
       </c>
       <c r="G19" t="n" s="11">
-        <v>39.758</v>
+        <v>39.765</v>
       </c>
       <c r="H19" t="n" s="11">
-        <v>41.069</v>
+        <v>41.068</v>
       </c>
       <c r="I19" t="n" s="11">
-        <v>42.427</v>
+        <v>42.414</v>
       </c>
       <c r="J19" t="n" s="11">
-        <v>42.292</v>
+        <v>42.3</v>
       </c>
       <c r="K19" t="n" s="11">
-        <v>40.553</v>
+        <v>40.56</v>
       </c>
       <c r="L19" t="n" s="11">
-        <v>42.16</v>
+        <v>42.164</v>
       </c>
       <c r="M19" t="n" s="11">
-        <v>42.076</v>
+        <v>42.057</v>
       </c>
       <c r="N19" t="n" s="11">
-        <v>42.92</v>
+        <v>42.929</v>
       </c>
       <c r="O19" t="n" s="11">
-        <v>44.045</v>
+        <v>44.052</v>
       </c>
       <c r="P19" t="n" s="11">
-        <v>44.901</v>
+        <v>44.906</v>
       </c>
       <c r="Q19" t="n" s="11">
-        <v>44.968</v>
+        <v>44.947</v>
       </c>
       <c r="R19" t="n" s="11">
-        <v>45.809</v>
+        <v>45.817</v>
       </c>
       <c r="S19" t="n" s="11">
-        <v>46.022</v>
+        <v>46.028</v>
       </c>
       <c r="T19" t="n" s="11">
-        <v>47.369</v>
+        <v>47.377</v>
       </c>
       <c r="U19" t="n" s="11">
-        <v>47.987</v>
+        <v>47.966</v>
       </c>
       <c r="V19" t="n" s="11">
-        <v>48.468</v>
+        <v>48.474</v>
       </c>
       <c r="W19" t="n" s="11">
-        <v>46.709</v>
+        <v>46.712</v>
       </c>
       <c r="X19" t="n" s="11">
-        <v>47.283</v>
+        <v>47.292</v>
       </c>
       <c r="Y19" t="n" s="11">
-        <v>47.912</v>
+        <v>47.897</v>
       </c>
       <c r="Z19" t="n" s="11">
-        <v>48.733</v>
+        <v>48.735</v>
       </c>
       <c r="AA19" t="n" s="11">
-        <v>48.654</v>
+        <v>48.655</v>
       </c>
       <c r="AB19" t="n" s="11">
-        <v>49.059</v>
+        <v>49.069</v>
       </c>
       <c r="AC19" t="n" s="11">
-        <v>48.921</v>
+        <v>48.913</v>
       </c>
       <c r="AD19" t="n" s="11">
-        <v>49.654</v>
+        <v>49.653</v>
       </c>
       <c r="AE19" t="n" s="11">
-        <v>49.3</v>
+        <v>49.298</v>
       </c>
       <c r="AF19" t="n" s="11">
-        <v>50.093</v>
+        <v>50.099</v>
       </c>
       <c r="AG19" t="n" s="11">
-        <v>50.333</v>
+        <v>50.332</v>
       </c>
       <c r="AH19" t="n" s="11">
-        <v>51.38</v>
+        <v>51.376</v>
       </c>
       <c r="AI19" t="n" s="11">
-        <v>50.427</v>
+        <v>50.426</v>
       </c>
       <c r="AJ19" t="n" s="11">
-        <v>51.182</v>
+        <v>51.19</v>
       </c>
       <c r="AK19" t="n" s="11">
-        <v>51.633</v>
+        <v>51.632</v>
       </c>
       <c r="AL19" t="n" s="11">
-        <v>52.435</v>
+        <v>52.43</v>
       </c>
       <c r="AM19" t="n" s="11">
         <v>53.632</v>
       </c>
       <c r="AN19" t="n" s="11">
-        <v>54.029</v>
+        <v>54.034</v>
       </c>
       <c r="AO19" t="n" s="11">
-        <v>54.672</v>
+        <v>54.671</v>
       </c>
       <c r="AP19" t="n" s="11">
-        <v>55.023</v>
+        <v>55.018</v>
       </c>
       <c r="AQ19" t="n" s="11">
         <v>53.757</v>
       </c>
       <c r="AR19" t="n" s="11">
-        <v>53.985</v>
+        <v>53.988</v>
       </c>
       <c r="AS19" t="n" s="11">
-        <v>54.44</v>
+        <v>54.438</v>
       </c>
       <c r="AT19" t="n" s="11">
-        <v>55.085</v>
+        <v>55.083</v>
       </c>
       <c r="AU19" t="n" s="11">
         <v>53.677</v>
       </c>
       <c r="AV19" t="n" s="11">
-        <v>53.61</v>
+        <v>53.611</v>
       </c>
       <c r="AW19" t="n" s="11">
-        <v>54.708</v>
+        <v>54.707</v>
       </c>
       <c r="AX19" t="n" s="11">
-        <v>54.559</v>
+        <v>54.558</v>
       </c>
       <c r="AY19" t="n" s="11">
-        <v>55.014</v>
+        <v>55.015</v>
       </c>
       <c r="AZ19" t="n" s="11">
         <v>54.716</v>
       </c>
       <c r="BA19" t="n" s="11">
-        <v>55.811</v>
+        <v>55.81</v>
       </c>
       <c r="BB19" t="n" s="11">
-        <v>55.316</v>
+        <v>55.315</v>
       </c>
       <c r="BC19" t="n" s="11">
-        <v>54.771</v>
+        <v>54.77</v>
       </c>
       <c r="BD19" t="n" s="11">
-        <v>54.494</v>
+        <v>54.495</v>
       </c>
       <c r="BE19" t="n" s="11">
-        <v>55.001</v>
+        <v>55.0</v>
       </c>
       <c r="BF19" t="n" s="11">
         <v>54.625</v>
       </c>
       <c r="BG19" t="n" s="11">
-        <v>54.547</v>
+        <v>54.546</v>
       </c>
       <c r="BH19" t="n" s="11">
         <v>54.81</v>
       </c>
       <c r="BI19" t="n" s="11">
-        <v>54.42</v>
+        <v>54.421</v>
       </c>
       <c r="BJ19" t="n" s="11">
         <v>54.198</v>
@@ -7819,10 +8039,10 @@
         <v>55.665</v>
       </c>
       <c r="BL19" t="n" s="11">
-        <v>55.547</v>
+        <v>55.548</v>
       </c>
       <c r="BM19" t="n" s="11">
-        <v>56.616</v>
+        <v>56.615</v>
       </c>
       <c r="BN19" t="n" s="11">
         <v>56.014</v>
@@ -7840,180 +8060,192 @@
         <v>56.443</v>
       </c>
       <c r="BS19" t="n" s="11">
-        <v>57.007</v>
+        <v>57.009</v>
       </c>
       <c r="BT19" t="n" s="11">
-        <v>57.962</v>
+        <v>57.966</v>
       </c>
       <c r="BU19" t="n" s="11">
-        <v>58.451</v>
+        <v>58.444</v>
       </c>
       <c r="BV19" t="n" s="11">
-        <v>58.779</v>
+        <v>58.78</v>
       </c>
       <c r="BW19" t="n" s="11">
-        <v>59.263</v>
+        <v>59.266</v>
       </c>
       <c r="BX19" t="n" s="11">
-        <v>59.753</v>
+        <v>59.76</v>
       </c>
       <c r="BY19" t="n" s="11">
-        <v>58.976</v>
+        <v>58.962</v>
       </c>
       <c r="BZ19" t="n" s="11">
-        <v>58.587</v>
+        <v>58.589</v>
       </c>
       <c r="CA19" t="n" s="11">
-        <v>60.044</v>
+        <v>60.052</v>
       </c>
       <c r="CB19" t="n" s="11">
-        <v>60.775</v>
+        <v>60.785</v>
       </c>
       <c r="CC19" t="n" s="11">
-        <v>61.007</v>
+        <v>60.986</v>
       </c>
       <c r="CD19" t="n" s="11">
-        <v>61.249</v>
+        <v>61.252</v>
       </c>
       <c r="CE19" t="n" s="11">
-        <v>61.546</v>
+        <v>61.557</v>
       </c>
       <c r="CF19" t="n" s="11">
-        <v>62.223</v>
+        <v>62.235</v>
       </c>
       <c r="CG19" t="n" s="11">
-        <v>62.456</v>
+        <v>62.436</v>
       </c>
       <c r="CH19" t="n" s="11">
-        <v>62.424</v>
+        <v>62.421</v>
       </c>
       <c r="CI19" t="n" s="11">
-        <v>63.213</v>
+        <v>63.232</v>
       </c>
       <c r="CJ19" t="n" s="11">
-        <v>64.073</v>
+        <v>64.087</v>
       </c>
       <c r="CK19" t="n" s="11">
-        <v>64.31</v>
+        <v>64.291</v>
       </c>
       <c r="CL19" t="n" s="11">
-        <v>64.337</v>
+        <v>64.323</v>
       </c>
       <c r="CM19" t="n" s="11">
-        <v>64.324</v>
+        <v>64.35</v>
       </c>
       <c r="CN19" t="n" s="11">
-        <v>65.006</v>
+        <v>65.025</v>
       </c>
       <c r="CO19" t="n" s="11">
-        <v>65.286</v>
+        <v>65.283</v>
       </c>
       <c r="CP19" t="n" s="11">
-        <v>65.653</v>
+        <v>65.611</v>
       </c>
       <c r="CQ19" t="n" s="11">
-        <v>66.777</v>
+        <v>66.815</v>
       </c>
       <c r="CR19" t="n" s="11">
-        <v>67.19</v>
+        <v>67.209</v>
       </c>
       <c r="CS19" t="n" s="11">
-        <v>67.647</v>
+        <v>67.668</v>
       </c>
       <c r="CT19" t="n" s="11">
-        <v>68.167</v>
+        <v>68.087</v>
       </c>
       <c r="CU19" t="n" s="11">
-        <v>68.919</v>
+        <v>68.973</v>
       </c>
       <c r="CV19" t="n" s="11">
-        <v>69.522</v>
+        <v>69.542</v>
       </c>
       <c r="CW19" t="n" s="11">
-        <v>70.092</v>
+        <v>70.142</v>
       </c>
       <c r="CX19" t="n" s="11">
-        <v>70.822</v>
+        <v>70.698</v>
       </c>
       <c r="CY19" t="n" s="11">
-        <v>70.863</v>
+        <v>70.944</v>
       </c>
       <c r="CZ19" t="n" s="11">
-        <v>71.338</v>
+        <v>71.356</v>
       </c>
       <c r="DA19" t="n" s="11">
-        <v>72.288</v>
+        <v>72.358</v>
       </c>
       <c r="DB19" t="n" s="11">
-        <v>73.171</v>
+        <v>72.999</v>
       </c>
       <c r="DC19" t="n" s="11">
-        <v>73.679</v>
+        <v>73.796</v>
       </c>
       <c r="DD19" t="n" s="11">
-        <v>74.803</v>
+        <v>74.818</v>
       </c>
       <c r="DE19" t="n" s="11">
-        <v>75.364</v>
+        <v>75.455</v>
       </c>
       <c r="DF19" t="n" s="11">
-        <v>77.044</v>
+        <v>76.821</v>
       </c>
       <c r="DG19" t="n" s="11">
-        <v>75.944</v>
+        <v>76.097</v>
       </c>
       <c r="DH19" t="n" s="11">
-        <v>76.747</v>
+        <v>76.744</v>
       </c>
       <c r="DI19" t="n" s="11">
-        <v>78.248</v>
+        <v>78.384</v>
       </c>
       <c r="DJ19" t="n" s="11">
-        <v>80.072</v>
+        <v>79.784</v>
       </c>
       <c r="DK19" t="n" s="11">
-        <v>81.024</v>
+        <v>81.215</v>
       </c>
       <c r="DL19" t="n" s="11">
-        <v>81.767</v>
+        <v>81.737</v>
       </c>
       <c r="DM19" t="n" s="11">
-        <v>83.276</v>
+        <v>83.474</v>
       </c>
       <c r="DN19" t="n" s="11">
-        <v>85.398</v>
+        <v>85.038</v>
       </c>
       <c r="DO19" t="n" s="11">
-        <v>82.744</v>
+        <v>82.95</v>
       </c>
       <c r="DP19" t="n" s="11">
-        <v>83.609</v>
+        <v>83.54</v>
       </c>
       <c r="DQ19" t="n" s="11">
-        <v>84.363</v>
+        <v>84.629</v>
       </c>
       <c r="DR19" t="n" s="11">
-        <v>87.332</v>
+        <v>86.929</v>
       </c>
       <c r="DS19" t="n" s="11">
-        <v>84.756</v>
+        <v>84.917</v>
       </c>
       <c r="DT19" t="n" s="11">
-        <v>85.696</v>
+        <v>85.538</v>
       </c>
       <c r="DU19" t="n" s="11">
-        <v>87.374</v>
+        <v>87.708</v>
       </c>
       <c r="DV19" t="n" s="11">
-        <v>91.414</v>
+        <v>91.184</v>
+      </c>
+      <c r="DW19" t="n" s="11">
+        <v>87.211</v>
+      </c>
+      <c r="DX19" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY19" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ19" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" t="n" s="11">
         <v>170.099</v>
@@ -8376,24 +8608,36 @@
         <v>382.64</v>
       </c>
       <c r="DS20" t="n" s="11">
-        <v>383.207</v>
+        <v>383.014</v>
       </c>
       <c r="DT20" t="n" s="11">
-        <v>386.966</v>
+        <v>387.172</v>
       </c>
       <c r="DU20" t="n" s="11">
-        <v>399.86</v>
+        <v>399.814</v>
       </c>
       <c r="DV20" t="n" s="11">
-        <v>401.14</v>
+        <v>402.028</v>
+      </c>
+      <c r="DW20" t="n" s="11">
+        <v>411.442</v>
+      </c>
+      <c r="DX20" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY20" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ20" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="10">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" t="n" s="11">
         <v>48.369</v>
@@ -8756,24 +9000,36 @@
         <v>122.341</v>
       </c>
       <c r="DS21" t="n" s="11">
-        <v>124.839</v>
+        <v>124.67</v>
       </c>
       <c r="DT21" t="n" s="11">
-        <v>125.046</v>
+        <v>124.912</v>
       </c>
       <c r="DU21" t="n" s="11">
-        <v>129.232</v>
+        <v>129.075</v>
       </c>
       <c r="DV21" t="n" s="11">
-        <v>127.845</v>
+        <v>128.078</v>
+      </c>
+      <c r="DW21" t="n" s="11">
+        <v>135.607</v>
+      </c>
+      <c r="DX21" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY21" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ21" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" t="n" s="11">
         <v>23.526</v>
@@ -9136,24 +9392,36 @@
         <v>61.418</v>
       </c>
       <c r="DS22" t="n" s="11">
-        <v>63.791</v>
+        <v>63.798</v>
       </c>
       <c r="DT22" t="n" s="11">
-        <v>65.549</v>
+        <v>65.537</v>
       </c>
       <c r="DU22" t="n" s="11">
-        <v>67.098</v>
+        <v>67.113</v>
       </c>
       <c r="DV22" t="n" s="11">
-        <v>65.109</v>
+        <v>65.255</v>
+      </c>
+      <c r="DW22" t="n" s="11">
+        <v>69.238</v>
+      </c>
+      <c r="DX22" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY22" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ22" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="10">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" t="n" s="11">
         <v>24.843</v>
@@ -9516,24 +9784,36 @@
         <v>60.923</v>
       </c>
       <c r="DS23" t="n" s="11">
-        <v>61.048</v>
+        <v>60.872</v>
       </c>
       <c r="DT23" t="n" s="11">
-        <v>59.497</v>
+        <v>59.375</v>
       </c>
       <c r="DU23" t="n" s="11">
-        <v>62.134</v>
+        <v>61.962</v>
       </c>
       <c r="DV23" t="n" s="11">
-        <v>62.736</v>
+        <v>62.823</v>
+      </c>
+      <c r="DW23" t="n" s="11">
+        <v>66.369</v>
+      </c>
+      <c r="DX23" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY23" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ23" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="10">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" t="n" s="11">
         <v>121.73</v>
@@ -9896,24 +10176,36 @@
         <v>260.299</v>
       </c>
       <c r="DS24" t="n" s="11">
-        <v>258.368</v>
+        <v>258.344</v>
       </c>
       <c r="DT24" t="n" s="11">
-        <v>261.92</v>
+        <v>262.26</v>
       </c>
       <c r="DU24" t="n" s="11">
-        <v>270.628</v>
+        <v>270.739</v>
       </c>
       <c r="DV24" t="n" s="11">
-        <v>273.295</v>
+        <v>273.95</v>
+      </c>
+      <c r="DW24" t="n" s="11">
+        <v>275.835</v>
+      </c>
+      <c r="DX24" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY24" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ24" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s" s="14">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C25" t="n" s="11">
         <v>1923.0</v>
@@ -9970,7 +10262,7 @@
         <v>2454.0</v>
       </c>
       <c r="U25" t="n" s="11">
-        <v>2475.0</v>
+        <v>2474.0</v>
       </c>
       <c r="V25" t="n" s="11">
         <v>2490.0</v>
@@ -9982,7 +10274,7 @@
         <v>2471.0</v>
       </c>
       <c r="Y25" t="n" s="11">
-        <v>2495.0</v>
+        <v>2494.0</v>
       </c>
       <c r="Z25" t="n" s="11">
         <v>2505.0</v>
@@ -10000,7 +10292,7 @@
         <v>2515.0</v>
       </c>
       <c r="AE25" t="n" s="11">
-        <v>2517.0</v>
+        <v>2516.0</v>
       </c>
       <c r="AF25" t="n" s="11">
         <v>2526.0</v>
@@ -10036,7 +10328,7 @@
         <v>2621.0</v>
       </c>
       <c r="AQ25" t="n" s="11">
-        <v>2636.0</v>
+        <v>2635.0</v>
       </c>
       <c r="AR25" t="n" s="11">
         <v>2642.0</v>
@@ -10066,7 +10358,7 @@
         <v>2722.0</v>
       </c>
       <c r="BA25" t="n" s="11">
-        <v>2743.0</v>
+        <v>2744.0</v>
       </c>
       <c r="BB25" t="n" s="11">
         <v>2741.0</v>
@@ -10099,7 +10391,7 @@
         <v>2771.0</v>
       </c>
       <c r="BL25" t="n" s="11">
-        <v>2772.0</v>
+        <v>2771.0</v>
       </c>
       <c r="BM25" t="n" s="11">
         <v>2789.0</v>
@@ -10159,7 +10451,7 @@
         <v>3022.0</v>
       </c>
       <c r="CF25" t="n" s="11">
-        <v>3045.0</v>
+        <v>3046.0</v>
       </c>
       <c r="CG25" t="n" s="11">
         <v>3054.0</v>
@@ -10168,19 +10460,19 @@
         <v>3068.0</v>
       </c>
       <c r="CI25" t="n" s="11">
-        <v>3096.0</v>
+        <v>3097.0</v>
       </c>
       <c r="CJ25" t="n" s="11">
         <v>3129.0</v>
       </c>
       <c r="CK25" t="n" s="11">
-        <v>3139.0</v>
+        <v>3138.0</v>
       </c>
       <c r="CL25" t="n" s="11">
         <v>3151.0</v>
       </c>
       <c r="CM25" t="n" s="11">
-        <v>3156.0</v>
+        <v>3157.0</v>
       </c>
       <c r="CN25" t="n" s="11">
         <v>3182.0</v>
@@ -10192,7 +10484,7 @@
         <v>3219.0</v>
       </c>
       <c r="CQ25" t="n" s="11">
-        <v>3252.0</v>
+        <v>3253.0</v>
       </c>
       <c r="CR25" t="n" s="11">
         <v>3269.0</v>
@@ -10210,13 +10502,13 @@
         <v>3371.0</v>
       </c>
       <c r="CW25" t="n" s="11">
-        <v>3385.0</v>
+        <v>3386.0</v>
       </c>
       <c r="CX25" t="n" s="11">
-        <v>3409.0</v>
+        <v>3408.0</v>
       </c>
       <c r="CY25" t="n" s="11">
-        <v>3425.0</v>
+        <v>3426.0</v>
       </c>
       <c r="CZ25" t="n" s="11">
         <v>3438.0</v>
@@ -10225,75 +10517,87 @@
         <v>3460.0</v>
       </c>
       <c r="DB25" t="n" s="11">
-        <v>3488.0</v>
+        <v>3487.0</v>
       </c>
       <c r="DC25" t="n" s="11">
-        <v>3511.0</v>
+        <v>3512.0</v>
       </c>
       <c r="DD25" t="n" s="11">
         <v>3534.0</v>
       </c>
       <c r="DE25" t="n" s="11">
-        <v>3552.0</v>
+        <v>3553.0</v>
       </c>
       <c r="DF25" t="n" s="11">
-        <v>3588.0</v>
+        <v>3586.0</v>
       </c>
       <c r="DG25" t="n" s="11">
-        <v>3606.0</v>
+        <v>3607.0</v>
       </c>
       <c r="DH25" t="n" s="11">
         <v>3633.0</v>
       </c>
       <c r="DI25" t="n" s="11">
-        <v>3669.0</v>
+        <v>3671.0</v>
       </c>
       <c r="DJ25" t="n" s="11">
-        <v>3691.0</v>
+        <v>3689.0</v>
       </c>
       <c r="DK25" t="n" s="11">
-        <v>3729.0</v>
+        <v>3731.0</v>
       </c>
       <c r="DL25" t="n" s="11">
         <v>3763.0</v>
       </c>
       <c r="DM25" t="n" s="11">
-        <v>3805.0</v>
+        <v>3807.0</v>
       </c>
       <c r="DN25" t="n" s="11">
-        <v>3798.0</v>
+        <v>3794.0</v>
       </c>
       <c r="DO25" t="n" s="11">
-        <v>3805.0</v>
+        <v>3807.0</v>
       </c>
       <c r="DP25" t="n" s="11">
         <v>3675.0</v>
       </c>
       <c r="DQ25" t="n" s="11">
-        <v>3810.0</v>
+        <v>3813.0</v>
       </c>
       <c r="DR25" t="n" s="11">
-        <v>3853.0</v>
+        <v>3849.0</v>
       </c>
       <c r="DS25" t="n" s="11">
         <v>3839.0</v>
       </c>
       <c r="DT25" t="n" s="11">
-        <v>3865.0</v>
+        <v>3866.0</v>
       </c>
       <c r="DU25" t="n" s="11">
-        <v>3964.0</v>
+        <v>3967.0</v>
       </c>
       <c r="DV25" t="n" s="11">
-        <v>3992.0</v>
+        <v>3997.0</v>
+      </c>
+      <c r="DW25" t="n" s="11">
+        <v>4021.0</v>
+      </c>
+      <c r="DX25" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY25" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ25" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="10">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s" s="14">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C26" t="n" s="11">
         <v>1589.0</v>
@@ -10479,7 +10783,7 @@
         <v>2237.0</v>
       </c>
       <c r="BL26" t="n" s="11">
-        <v>2243.0</v>
+        <v>2242.0</v>
       </c>
       <c r="BM26" t="n" s="11">
         <v>2253.0</v>
@@ -10500,7 +10804,7 @@
         <v>2301.0</v>
       </c>
       <c r="BS26" t="n" s="11">
-        <v>2322.0</v>
+        <v>2321.0</v>
       </c>
       <c r="BT26" t="n" s="11">
         <v>2333.0</v>
@@ -10602,7 +10906,7 @@
         <v>2830.0</v>
       </c>
       <c r="DA26" t="n" s="11">
-        <v>2846.0</v>
+        <v>2847.0</v>
       </c>
       <c r="DB26" t="n" s="11">
         <v>2870.0</v>
@@ -10620,13 +10924,13 @@
         <v>2948.0</v>
       </c>
       <c r="DG26" t="n" s="11">
-        <v>2977.0</v>
+        <v>2978.0</v>
       </c>
       <c r="DH26" t="n" s="11">
         <v>3000.0</v>
       </c>
       <c r="DI26" t="n" s="11">
-        <v>3026.0</v>
+        <v>3027.0</v>
       </c>
       <c r="DJ26" t="n" s="11">
         <v>3035.0</v>
@@ -10635,7 +10939,7 @@
         <v>3068.0</v>
       </c>
       <c r="DL26" t="n" s="11">
-        <v>3097.0</v>
+        <v>3098.0</v>
       </c>
       <c r="DM26" t="n" s="11">
         <v>3128.0</v>
@@ -10647,33 +10951,45 @@
         <v>3135.0</v>
       </c>
       <c r="DP26" t="n" s="11">
-        <v>2989.0</v>
+        <v>2990.0</v>
       </c>
       <c r="DQ26" t="n" s="11">
         <v>3118.0</v>
       </c>
       <c r="DR26" t="n" s="11">
-        <v>3137.0</v>
+        <v>3136.0</v>
       </c>
       <c r="DS26" t="n" s="11">
-        <v>3144.0</v>
+        <v>3142.0</v>
       </c>
       <c r="DT26" t="n" s="11">
-        <v>3164.0</v>
+        <v>3166.0</v>
       </c>
       <c r="DU26" t="n" s="11">
         <v>3253.0</v>
       </c>
       <c r="DV26" t="n" s="11">
-        <v>3251.0</v>
+        <v>3258.0</v>
+      </c>
+      <c r="DW26" t="n" s="11">
+        <v>3318.0</v>
+      </c>
+      <c r="DX26" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY26" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ26" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="10">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s" s="14">
         <v>52</v>
-      </c>
-      <c r="B27" t="s" s="14">
-        <v>50</v>
       </c>
       <c r="C27" t="n" s="11">
         <v>1137.0</v>
@@ -10760,7 +11076,7 @@
         <v>1336.0</v>
       </c>
       <c r="AE27" t="n" s="11">
-        <v>1348.0</v>
+        <v>1347.0</v>
       </c>
       <c r="AF27" t="n" s="11">
         <v>1347.0</v>
@@ -11009,13 +11325,13 @@
         <v>2017.0</v>
       </c>
       <c r="DJ27" t="n" s="11">
-        <v>2033.0</v>
+        <v>2032.0</v>
       </c>
       <c r="DK27" t="n" s="11">
         <v>2059.0</v>
       </c>
       <c r="DL27" t="n" s="11">
-        <v>2070.0</v>
+        <v>2071.0</v>
       </c>
       <c r="DM27" t="n" s="11">
         <v>2097.0</v>
@@ -11039,32 +11355,44 @@
         <v>2120.0</v>
       </c>
       <c r="DT27" t="n" s="11">
-        <v>2142.0</v>
+        <v>2145.0</v>
       </c>
       <c r="DU27" t="n" s="11">
-        <v>2202.0</v>
+        <v>2203.0</v>
       </c>
       <c r="DV27" t="n" s="11">
-        <v>2215.0</v>
+        <v>2220.0</v>
+      </c>
+      <c r="DW27" t="n" s="11">
+        <v>2224.0</v>
+      </c>
+      <c r="DX27" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY27" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ27" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="28" ht="33.75" customHeight="true">
       <c r="A28" t="s" s="15">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" t="n" s="11">
         <v>207.608</v>
       </c>
       <c r="D29" t="n" s="11">
-        <v>214.177</v>
+        <v>214.176</v>
       </c>
       <c r="E29" t="n" s="11">
         <v>214.51</v>
@@ -11082,85 +11410,85 @@
         <v>235.529</v>
       </c>
       <c r="J29" t="n" s="11">
-        <v>236.256</v>
+        <v>236.258</v>
       </c>
       <c r="K29" t="n" s="11">
         <v>233.671</v>
       </c>
       <c r="L29" t="n" s="11">
-        <v>237.463</v>
+        <v>237.458</v>
       </c>
       <c r="M29" t="n" s="11">
-        <v>237.916</v>
+        <v>237.907</v>
       </c>
       <c r="N29" t="n" s="11">
-        <v>239.907</v>
+        <v>239.932</v>
       </c>
       <c r="O29" t="n" s="11">
-        <v>241.868</v>
+        <v>241.859</v>
       </c>
       <c r="P29" t="n" s="11">
-        <v>242.062</v>
+        <v>242.049</v>
       </c>
       <c r="Q29" t="n" s="11">
-        <v>243.839</v>
+        <v>243.823</v>
       </c>
       <c r="R29" t="n" s="11">
-        <v>246.366</v>
+        <v>246.41</v>
       </c>
       <c r="S29" t="n" s="11">
-        <v>248.636</v>
+        <v>248.62</v>
       </c>
       <c r="T29" t="n" s="11">
-        <v>252.059</v>
+        <v>252.049</v>
       </c>
       <c r="U29" t="n" s="11">
-        <v>253.487</v>
+        <v>253.482</v>
       </c>
       <c r="V29" t="n" s="11">
-        <v>254.793</v>
+        <v>254.81</v>
       </c>
       <c r="W29" t="n" s="11">
-        <v>254.225</v>
+        <v>254.22</v>
       </c>
       <c r="X29" t="n" s="11">
         <v>254.066</v>
       </c>
       <c r="Y29" t="n" s="11">
-        <v>255.155</v>
+        <v>255.161</v>
       </c>
       <c r="Z29" t="n" s="11">
-        <v>255.265</v>
+        <v>255.251</v>
       </c>
       <c r="AA29" t="n" s="11">
-        <v>255.565</v>
+        <v>255.57</v>
       </c>
       <c r="AB29" t="n" s="11">
-        <v>255.367</v>
+        <v>255.372</v>
       </c>
       <c r="AC29" t="n" s="11">
-        <v>255.244</v>
+        <v>255.248</v>
       </c>
       <c r="AD29" t="n" s="11">
-        <v>256.357</v>
+        <v>256.343</v>
       </c>
       <c r="AE29" t="n" s="11">
-        <v>258.195</v>
+        <v>258.199</v>
       </c>
       <c r="AF29" t="n" s="11">
-        <v>260.03</v>
+        <v>260.034</v>
       </c>
       <c r="AG29" t="n" s="11">
-        <v>262.038</v>
+        <v>262.039</v>
       </c>
       <c r="AH29" t="n" s="11">
-        <v>264.108</v>
+        <v>264.103</v>
       </c>
       <c r="AI29" t="n" s="11">
-        <v>264.936</v>
+        <v>264.938</v>
       </c>
       <c r="AJ29" t="n" s="11">
-        <v>267.819</v>
+        <v>267.82</v>
       </c>
       <c r="AK29" t="n" s="11">
         <v>269.799</v>
@@ -11364,87 +11692,99 @@
         <v>400.379</v>
       </c>
       <c r="CZ29" t="n" s="11">
-        <v>403.557</v>
+        <v>403.556</v>
       </c>
       <c r="DA29" t="n" s="11">
-        <v>408.068</v>
+        <v>408.066</v>
       </c>
       <c r="DB29" t="n" s="11">
-        <v>412.42</v>
+        <v>412.418</v>
       </c>
       <c r="DC29" t="n" s="11">
-        <v>416.979</v>
+        <v>416.992</v>
       </c>
       <c r="DD29" t="n" s="11">
-        <v>421.708</v>
+        <v>421.729</v>
       </c>
       <c r="DE29" t="n" s="11">
-        <v>425.885</v>
+        <v>425.848</v>
       </c>
       <c r="DF29" t="n" s="11">
-        <v>431.211</v>
+        <v>431.096</v>
       </c>
       <c r="DG29" t="n" s="11">
-        <v>435.441</v>
+        <v>435.599</v>
       </c>
       <c r="DH29" t="n" s="11">
-        <v>440.998</v>
+        <v>441.256</v>
       </c>
       <c r="DI29" t="n" s="11">
-        <v>446.023</v>
+        <v>445.674</v>
       </c>
       <c r="DJ29" t="n" s="11">
-        <v>450.411</v>
+        <v>449.777</v>
       </c>
       <c r="DK29" t="n" s="11">
-        <v>455.164</v>
+        <v>456.185</v>
       </c>
       <c r="DL29" t="n" s="11">
-        <v>465.494</v>
+        <v>465.817</v>
       </c>
       <c r="DM29" t="n" s="11">
-        <v>466.624</v>
+        <v>465.981</v>
       </c>
       <c r="DN29" t="n" s="11">
-        <v>466.964</v>
+        <v>465.573</v>
       </c>
       <c r="DO29" t="n" s="11">
-        <v>466.997</v>
+        <v>468.921</v>
       </c>
       <c r="DP29" t="n" s="11">
-        <v>455.154</v>
+        <v>455.141</v>
       </c>
       <c r="DQ29" t="n" s="11">
-        <v>461.866</v>
+        <v>461.434</v>
       </c>
       <c r="DR29" t="n" s="11">
-        <v>467.398</v>
+        <v>465.288</v>
       </c>
       <c r="DS29" t="n" s="11">
-        <v>465.431</v>
+        <v>467.514</v>
       </c>
       <c r="DT29" t="n" s="11">
-        <v>480.276</v>
+        <v>480.283</v>
       </c>
       <c r="DU29" t="n" s="11">
-        <v>483.915</v>
+        <v>483.418</v>
       </c>
       <c r="DV29" t="n" s="11">
-        <v>490.902</v>
+        <v>490.151</v>
+      </c>
+      <c r="DW29" t="n" s="11">
+        <v>497.45</v>
+      </c>
+      <c r="DX29" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY29" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ29" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s" s="14">
         <v>43</v>
-      </c>
-      <c r="B30" t="s" s="14">
-        <v>42</v>
       </c>
       <c r="C30" t="n" s="11">
         <v>36.329</v>
       </c>
       <c r="D30" t="n" s="11">
-        <v>38.561</v>
+        <v>38.56</v>
       </c>
       <c r="E30" t="n" s="11">
         <v>38.496</v>
@@ -11462,85 +11802,85 @@
         <v>42.223</v>
       </c>
       <c r="J30" t="n" s="11">
-        <v>42.596</v>
+        <v>42.598</v>
       </c>
       <c r="K30" t="n" s="11">
         <v>40.442</v>
       </c>
       <c r="L30" t="n" s="11">
-        <v>42.134</v>
+        <v>42.129</v>
       </c>
       <c r="M30" t="n" s="11">
-        <v>42.21</v>
+        <v>42.201</v>
       </c>
       <c r="N30" t="n" s="11">
-        <v>42.857</v>
+        <v>42.882</v>
       </c>
       <c r="O30" t="n" s="11">
-        <v>43.873</v>
+        <v>43.864</v>
       </c>
       <c r="P30" t="n" s="11">
-        <v>44.691</v>
+        <v>44.678</v>
       </c>
       <c r="Q30" t="n" s="11">
-        <v>45.069</v>
+        <v>45.053</v>
       </c>
       <c r="R30" t="n" s="11">
-        <v>45.725</v>
+        <v>45.769</v>
       </c>
       <c r="S30" t="n" s="11">
-        <v>46.339</v>
+        <v>46.323</v>
       </c>
       <c r="T30" t="n" s="11">
-        <v>47.293</v>
+        <v>47.283</v>
       </c>
       <c r="U30" t="n" s="11">
-        <v>47.885</v>
+        <v>47.88</v>
       </c>
       <c r="V30" t="n" s="11">
-        <v>48.066</v>
+        <v>48.083</v>
       </c>
       <c r="W30" t="n" s="11">
-        <v>47.266</v>
+        <v>47.261</v>
       </c>
       <c r="X30" t="n" s="11">
         <v>47.325</v>
       </c>
       <c r="Y30" t="n" s="11">
-        <v>47.791</v>
+        <v>47.797</v>
       </c>
       <c r="Z30" t="n" s="11">
-        <v>48.313</v>
+        <v>48.299</v>
       </c>
       <c r="AA30" t="n" s="11">
-        <v>48.942</v>
+        <v>48.947</v>
       </c>
       <c r="AB30" t="n" s="11">
-        <v>49.011</v>
+        <v>49.016</v>
       </c>
       <c r="AC30" t="n" s="11">
-        <v>49.03</v>
+        <v>49.034</v>
       </c>
       <c r="AD30" t="n" s="11">
-        <v>49.297</v>
+        <v>49.283</v>
       </c>
       <c r="AE30" t="n" s="11">
-        <v>49.556</v>
+        <v>49.56</v>
       </c>
       <c r="AF30" t="n" s="11">
-        <v>50.043</v>
+        <v>50.047</v>
       </c>
       <c r="AG30" t="n" s="11">
-        <v>50.429</v>
+        <v>50.43</v>
       </c>
       <c r="AH30" t="n" s="11">
-        <v>51.089</v>
+        <v>51.084</v>
       </c>
       <c r="AI30" t="n" s="11">
-        <v>50.758</v>
+        <v>50.76</v>
       </c>
       <c r="AJ30" t="n" s="11">
-        <v>51.214</v>
+        <v>51.215</v>
       </c>
       <c r="AK30" t="n" s="11">
         <v>51.687</v>
@@ -11744,81 +12084,93 @@
         <v>70.992</v>
       </c>
       <c r="CZ30" t="n" s="11">
-        <v>71.426</v>
+        <v>71.425</v>
       </c>
       <c r="DA30" t="n" s="11">
-        <v>72.294</v>
+        <v>72.292</v>
       </c>
       <c r="DB30" t="n" s="11">
-        <v>72.88</v>
+        <v>72.878</v>
       </c>
       <c r="DC30" t="n" s="11">
-        <v>73.994</v>
+        <v>74.007</v>
       </c>
       <c r="DD30" t="n" s="11">
-        <v>74.968</v>
+        <v>74.995</v>
       </c>
       <c r="DE30" t="n" s="11">
-        <v>75.507</v>
+        <v>75.484</v>
       </c>
       <c r="DF30" t="n" s="11">
-        <v>76.536</v>
+        <v>76.428</v>
       </c>
       <c r="DG30" t="n" s="11">
-        <v>76.203</v>
+        <v>76.186</v>
       </c>
       <c r="DH30" t="n" s="11">
-        <v>77.185</v>
+        <v>77.447</v>
       </c>
       <c r="DI30" t="n" s="11">
-        <v>78.385</v>
+        <v>78.407</v>
       </c>
       <c r="DJ30" t="n" s="11">
-        <v>79.459</v>
+        <v>79.545</v>
       </c>
       <c r="DK30" t="n" s="11">
-        <v>81.373</v>
+        <v>80.238</v>
       </c>
       <c r="DL30" t="n" s="11">
-        <v>81.925</v>
+        <v>82.823</v>
       </c>
       <c r="DM30" t="n" s="11">
-        <v>83.511</v>
+        <v>83.924</v>
       </c>
       <c r="DN30" t="n" s="11">
-        <v>84.763</v>
+        <v>85.09</v>
       </c>
       <c r="DO30" t="n" s="11">
-        <v>83.578</v>
+        <v>82.112</v>
       </c>
       <c r="DP30" t="n" s="11">
-        <v>83.638</v>
+        <v>83.358</v>
       </c>
       <c r="DQ30" t="n" s="11">
-        <v>84.491</v>
+        <v>85.853</v>
       </c>
       <c r="DR30" t="n" s="11">
-        <v>86.491</v>
+        <v>86.427</v>
       </c>
       <c r="DS30" t="n" s="11">
-        <v>85.613</v>
+        <v>85.416</v>
       </c>
       <c r="DT30" t="n" s="11">
-        <v>86.732</v>
+        <v>84.857</v>
       </c>
       <c r="DU30" t="n" s="11">
-        <v>87.268</v>
+        <v>89.107</v>
       </c>
       <c r="DV30" t="n" s="11">
-        <v>89.888</v>
+        <v>89.802</v>
+      </c>
+      <c r="DW30" t="n" s="11">
+        <v>89.133</v>
+      </c>
+      <c r="DX30" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY30" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ30" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" t="n" s="11">
         <v>171.279</v>
@@ -12136,69 +12488,81 @@
         <v>342.985</v>
       </c>
       <c r="DD31" t="n" s="11">
-        <v>346.74</v>
+        <v>346.734</v>
       </c>
       <c r="DE31" t="n" s="11">
-        <v>350.378</v>
+        <v>350.364</v>
       </c>
       <c r="DF31" t="n" s="11">
-        <v>354.675</v>
+        <v>354.668</v>
       </c>
       <c r="DG31" t="n" s="11">
-        <v>359.238</v>
+        <v>359.413</v>
       </c>
       <c r="DH31" t="n" s="11">
-        <v>363.813</v>
+        <v>363.809</v>
       </c>
       <c r="DI31" t="n" s="11">
-        <v>367.638</v>
+        <v>367.267</v>
       </c>
       <c r="DJ31" t="n" s="11">
-        <v>370.952</v>
+        <v>370.232</v>
       </c>
       <c r="DK31" t="n" s="11">
-        <v>373.791</v>
+        <v>375.947</v>
       </c>
       <c r="DL31" t="n" s="11">
-        <v>383.569</v>
+        <v>382.994</v>
       </c>
       <c r="DM31" t="n" s="11">
-        <v>383.113</v>
+        <v>382.057</v>
       </c>
       <c r="DN31" t="n" s="11">
-        <v>382.201</v>
+        <v>380.483</v>
       </c>
       <c r="DO31" t="n" s="11">
-        <v>383.419</v>
+        <v>386.809</v>
       </c>
       <c r="DP31" t="n" s="11">
-        <v>371.516</v>
+        <v>371.783</v>
       </c>
       <c r="DQ31" t="n" s="11">
-        <v>377.375</v>
+        <v>375.581</v>
       </c>
       <c r="DR31" t="n" s="11">
-        <v>380.907</v>
+        <v>378.861</v>
       </c>
       <c r="DS31" t="n" s="11">
-        <v>379.818</v>
+        <v>382.098</v>
       </c>
       <c r="DT31" t="n" s="11">
-        <v>393.544</v>
+        <v>395.426</v>
       </c>
       <c r="DU31" t="n" s="11">
-        <v>396.647</v>
+        <v>394.311</v>
       </c>
       <c r="DV31" t="n" s="11">
-        <v>401.014</v>
+        <v>400.349</v>
+      </c>
+      <c r="DW31" t="n" s="11">
+        <v>408.317</v>
+      </c>
+      <c r="DX31" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY31" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ31" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="10">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" t="n" s="11">
         <v>49.073</v>
@@ -12516,69 +12880,81 @@
         <v>113.556</v>
       </c>
       <c r="DD32" t="n" s="11">
-        <v>115.138</v>
+        <v>115.136</v>
       </c>
       <c r="DE32" t="n" s="11">
-        <v>116.194</v>
+        <v>116.189</v>
       </c>
       <c r="DF32" t="n" s="11">
-        <v>117.614</v>
+        <v>117.611</v>
       </c>
       <c r="DG32" t="n" s="11">
-        <v>119.509</v>
+        <v>119.565</v>
       </c>
       <c r="DH32" t="n" s="11">
-        <v>121.037</v>
+        <v>121.036</v>
       </c>
       <c r="DI32" t="n" s="11">
-        <v>122.301</v>
+        <v>122.177</v>
       </c>
       <c r="DJ32" t="n" s="11">
-        <v>123.042</v>
+        <v>122.8</v>
       </c>
       <c r="DK32" t="n" s="11">
-        <v>123.087</v>
+        <v>123.773</v>
       </c>
       <c r="DL32" t="n" s="11">
-        <v>126.414</v>
+        <v>126.366</v>
       </c>
       <c r="DM32" t="n" s="11">
-        <v>126.013</v>
+        <v>125.677</v>
       </c>
       <c r="DN32" t="n" s="11">
-        <v>126.328</v>
+        <v>125.51</v>
       </c>
       <c r="DO32" t="n" s="11">
-        <v>126.372</v>
+        <v>126.926</v>
       </c>
       <c r="DP32" t="n" s="11">
-        <v>119.549</v>
+        <v>121.297</v>
       </c>
       <c r="DQ32" t="n" s="11">
-        <v>123.067</v>
+        <v>122.039</v>
       </c>
       <c r="DR32" t="n" s="11">
-        <v>123.646</v>
+        <v>122.431</v>
       </c>
       <c r="DS32" t="n" s="11">
-        <v>123.896</v>
+        <v>123.374</v>
       </c>
       <c r="DT32" t="n" s="11">
-        <v>123.814</v>
+        <v>127.148</v>
       </c>
       <c r="DU32" t="n" s="11">
-        <v>128.787</v>
+        <v>127.077</v>
       </c>
       <c r="DV32" t="n" s="11">
-        <v>130.338</v>
+        <v>129.306</v>
+      </c>
+      <c r="DW32" t="n" s="11">
+        <v>133.028</v>
+      </c>
+      <c r="DX32" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY32" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ32" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" t="n" s="11">
         <v>23.329</v>
@@ -12896,69 +13272,81 @@
         <v>58.172</v>
       </c>
       <c r="DD33" t="n" s="11">
-        <v>59.029</v>
+        <v>59.027</v>
       </c>
       <c r="DE33" t="n" s="11">
-        <v>59.473</v>
+        <v>59.468</v>
       </c>
       <c r="DF33" t="n" s="11">
-        <v>60.161</v>
+        <v>60.158</v>
       </c>
       <c r="DG33" t="n" s="11">
-        <v>60.957</v>
+        <v>61.013</v>
       </c>
       <c r="DH33" t="n" s="11">
-        <v>61.653</v>
+        <v>61.652</v>
       </c>
       <c r="DI33" t="n" s="11">
-        <v>62.277</v>
+        <v>62.153</v>
       </c>
       <c r="DJ33" t="n" s="11">
-        <v>62.605</v>
+        <v>62.363</v>
       </c>
       <c r="DK33" t="n" s="11">
-        <v>62.118</v>
+        <v>62.802</v>
       </c>
       <c r="DL33" t="n" s="11">
-        <v>63.383</v>
+        <v>63.333</v>
       </c>
       <c r="DM33" t="n" s="11">
-        <v>63.075</v>
+        <v>62.74</v>
       </c>
       <c r="DN33" t="n" s="11">
-        <v>63.387</v>
+        <v>62.581</v>
       </c>
       <c r="DO33" t="n" s="11">
-        <v>64.014</v>
+        <v>64.565</v>
       </c>
       <c r="DP33" t="n" s="11">
-        <v>59.381</v>
+        <v>61.148</v>
       </c>
       <c r="DQ33" t="n" s="11">
-        <v>62.788</v>
+        <v>61.771</v>
       </c>
       <c r="DR33" t="n" s="11">
-        <v>63.28</v>
+        <v>62.059</v>
       </c>
       <c r="DS33" t="n" s="11">
-        <v>63.868</v>
+        <v>63.545</v>
       </c>
       <c r="DT33" t="n" s="11">
-        <v>62.774</v>
+        <v>66.281</v>
       </c>
       <c r="DU33" t="n" s="11">
-        <v>66.787</v>
+        <v>65.288</v>
       </c>
       <c r="DV33" t="n" s="11">
-        <v>67.921</v>
+        <v>66.669</v>
+      </c>
+      <c r="DW33" t="n" s="11">
+        <v>68.274</v>
+      </c>
+      <c r="DX33" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY33" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ33" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="10">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" t="n" s="11">
         <v>25.744</v>
@@ -13297,48 +13685,60 @@
         <v>60.437</v>
       </c>
       <c r="DK34" t="n" s="11">
-        <v>60.969</v>
+        <v>60.971</v>
       </c>
       <c r="DL34" t="n" s="11">
-        <v>63.031</v>
+        <v>63.033</v>
       </c>
       <c r="DM34" t="n" s="11">
-        <v>62.938</v>
+        <v>62.937</v>
       </c>
       <c r="DN34" t="n" s="11">
-        <v>62.941</v>
+        <v>62.929</v>
       </c>
       <c r="DO34" t="n" s="11">
-        <v>62.358</v>
+        <v>62.361</v>
       </c>
       <c r="DP34" t="n" s="11">
-        <v>60.168</v>
+        <v>60.149</v>
       </c>
       <c r="DQ34" t="n" s="11">
-        <v>60.279</v>
+        <v>60.268</v>
       </c>
       <c r="DR34" t="n" s="11">
-        <v>60.366</v>
+        <v>60.372</v>
       </c>
       <c r="DS34" t="n" s="11">
-        <v>60.028</v>
+        <v>59.829</v>
       </c>
       <c r="DT34" t="n" s="11">
-        <v>61.04</v>
+        <v>60.867</v>
       </c>
       <c r="DU34" t="n" s="11">
-        <v>62.0</v>
+        <v>61.789</v>
       </c>
       <c r="DV34" t="n" s="11">
-        <v>62.417</v>
+        <v>62.637</v>
+      </c>
+      <c r="DW34" t="n" s="11">
+        <v>64.754</v>
+      </c>
+      <c r="DX34" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY34" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ34" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="10">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" t="n" s="11">
         <v>122.206</v>
@@ -13656,69 +14056,81 @@
         <v>229.429</v>
       </c>
       <c r="DD35" t="n" s="11">
-        <v>231.602</v>
+        <v>231.598</v>
       </c>
       <c r="DE35" t="n" s="11">
-        <v>234.184</v>
+        <v>234.175</v>
       </c>
       <c r="DF35" t="n" s="11">
-        <v>237.061</v>
+        <v>237.057</v>
       </c>
       <c r="DG35" t="n" s="11">
-        <v>239.729</v>
+        <v>239.848</v>
       </c>
       <c r="DH35" t="n" s="11">
-        <v>242.776</v>
+        <v>242.773</v>
       </c>
       <c r="DI35" t="n" s="11">
-        <v>245.337</v>
+        <v>245.09</v>
       </c>
       <c r="DJ35" t="n" s="11">
-        <v>247.91</v>
+        <v>247.432</v>
       </c>
       <c r="DK35" t="n" s="11">
-        <v>250.704</v>
+        <v>252.174</v>
       </c>
       <c r="DL35" t="n" s="11">
-        <v>257.155</v>
+        <v>256.628</v>
       </c>
       <c r="DM35" t="n" s="11">
-        <v>257.1</v>
+        <v>256.38</v>
       </c>
       <c r="DN35" t="n" s="11">
-        <v>255.873</v>
+        <v>254.973</v>
       </c>
       <c r="DO35" t="n" s="11">
-        <v>257.047</v>
+        <v>259.883</v>
       </c>
       <c r="DP35" t="n" s="11">
-        <v>251.967</v>
+        <v>250.486</v>
       </c>
       <c r="DQ35" t="n" s="11">
-        <v>254.308</v>
+        <v>253.542</v>
       </c>
       <c r="DR35" t="n" s="11">
-        <v>257.261</v>
+        <v>256.43</v>
       </c>
       <c r="DS35" t="n" s="11">
-        <v>255.922</v>
+        <v>258.724</v>
       </c>
       <c r="DT35" t="n" s="11">
-        <v>269.73</v>
+        <v>268.278</v>
       </c>
       <c r="DU35" t="n" s="11">
-        <v>267.86</v>
+        <v>267.234</v>
       </c>
       <c r="DV35" t="n" s="11">
-        <v>270.676</v>
+        <v>271.043</v>
+      </c>
+      <c r="DW35" t="n" s="11">
+        <v>275.289</v>
+      </c>
+      <c r="DX35" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY35" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ35" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s" s="14">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C36" t="n" s="11">
         <v>1941.0</v>
@@ -13766,10 +14178,10 @@
         <v>2382.0</v>
       </c>
       <c r="R36" t="n" s="11">
-        <v>2404.0</v>
+        <v>2405.0</v>
       </c>
       <c r="S36" t="n" s="11">
-        <v>2427.0</v>
+        <v>2426.0</v>
       </c>
       <c r="T36" t="n" s="11">
         <v>2459.0</v>
@@ -14042,63 +14454,75 @@
         <v>3553.0</v>
       </c>
       <c r="DF36" t="n" s="11">
-        <v>3584.0</v>
+        <v>3583.0</v>
       </c>
       <c r="DG36" t="n" s="11">
-        <v>3603.0</v>
+        <v>3604.0</v>
       </c>
       <c r="DH36" t="n" s="11">
-        <v>3635.0</v>
+        <v>3637.0</v>
       </c>
       <c r="DI36" t="n" s="11">
-        <v>3664.0</v>
+        <v>3661.0</v>
       </c>
       <c r="DJ36" t="n" s="11">
-        <v>3690.0</v>
+        <v>3684.0</v>
       </c>
       <c r="DK36" t="n" s="11">
-        <v>3720.0</v>
+        <v>3728.0</v>
       </c>
       <c r="DL36" t="n" s="11">
+        <v>3786.0</v>
+      </c>
+      <c r="DM36" t="n" s="11">
         <v>3784.0</v>
       </c>
-      <c r="DM36" t="n" s="11">
-        <v>3790.0</v>
-      </c>
       <c r="DN36" t="n" s="11">
-        <v>3791.0</v>
+        <v>3779.0</v>
       </c>
       <c r="DO36" t="n" s="11">
-        <v>3791.0</v>
+        <v>3807.0</v>
       </c>
       <c r="DP36" t="n" s="11">
         <v>3726.0</v>
       </c>
       <c r="DQ36" t="n" s="11">
-        <v>3787.0</v>
+        <v>3785.0</v>
       </c>
       <c r="DR36" t="n" s="11">
-        <v>3835.0</v>
+        <v>3818.0</v>
       </c>
       <c r="DS36" t="n" s="11">
-        <v>3826.0</v>
+        <v>3841.0</v>
       </c>
       <c r="DT36" t="n" s="11">
         <v>3920.0</v>
       </c>
       <c r="DU36" t="n" s="11">
-        <v>3935.0</v>
+        <v>3932.0</v>
       </c>
       <c r="DV36" t="n" s="11">
-        <v>3980.0</v>
+        <v>3975.0</v>
+      </c>
+      <c r="DW36" t="n" s="11">
+        <v>4015.0</v>
+      </c>
+      <c r="DX36" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY36" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ36" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="10">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s" s="14">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C37" t="n" s="11">
         <v>1601.0</v>
@@ -14425,60 +14849,72 @@
         <v>2948.0</v>
       </c>
       <c r="DG37" t="n" s="11">
-        <v>2973.0</v>
+        <v>2974.0</v>
       </c>
       <c r="DH37" t="n" s="11">
         <v>2999.0</v>
       </c>
       <c r="DI37" t="n" s="11">
-        <v>3020.0</v>
+        <v>3017.0</v>
       </c>
       <c r="DJ37" t="n" s="11">
-        <v>3039.0</v>
+        <v>3033.0</v>
       </c>
       <c r="DK37" t="n" s="11">
-        <v>3055.0</v>
+        <v>3073.0</v>
       </c>
       <c r="DL37" t="n" s="11">
-        <v>3118.0</v>
+        <v>3113.0</v>
       </c>
       <c r="DM37" t="n" s="11">
-        <v>3111.0</v>
+        <v>3103.0</v>
       </c>
       <c r="DN37" t="n" s="11">
-        <v>3103.0</v>
+        <v>3089.0</v>
       </c>
       <c r="DO37" t="n" s="11">
-        <v>3113.0</v>
+        <v>3140.0</v>
       </c>
       <c r="DP37" t="n" s="11">
-        <v>3041.0</v>
+        <v>3043.0</v>
       </c>
       <c r="DQ37" t="n" s="11">
-        <v>3095.0</v>
+        <v>3080.0</v>
       </c>
       <c r="DR37" t="n" s="11">
-        <v>3125.0</v>
+        <v>3109.0</v>
       </c>
       <c r="DS37" t="n" s="11">
-        <v>3122.0</v>
+        <v>3140.0</v>
       </c>
       <c r="DT37" t="n" s="11">
-        <v>3212.0</v>
+        <v>3227.0</v>
       </c>
       <c r="DU37" t="n" s="11">
-        <v>3225.0</v>
+        <v>3207.0</v>
       </c>
       <c r="DV37" t="n" s="11">
-        <v>3252.0</v>
+        <v>3247.0</v>
+      </c>
+      <c r="DW37" t="n" s="11">
+        <v>3295.0</v>
+      </c>
+      <c r="DX37" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY37" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ37" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="10">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s" s="14">
         <v>52</v>
-      </c>
-      <c r="B38" t="s" s="14">
-        <v>50</v>
       </c>
       <c r="C38" t="n" s="11">
         <v>1142.0</v>
@@ -14805,68 +15241,80 @@
         <v>1970.0</v>
       </c>
       <c r="DG38" t="n" s="11">
-        <v>1984.0</v>
+        <v>1985.0</v>
       </c>
       <c r="DH38" t="n" s="11">
         <v>2001.0</v>
       </c>
       <c r="DI38" t="n" s="11">
-        <v>2015.0</v>
+        <v>2013.0</v>
       </c>
       <c r="DJ38" t="n" s="11">
-        <v>2031.0</v>
+        <v>2027.0</v>
       </c>
       <c r="DK38" t="n" s="11">
-        <v>2049.0</v>
+        <v>2061.0</v>
       </c>
       <c r="DL38" t="n" s="11">
-        <v>2090.0</v>
+        <v>2086.0</v>
       </c>
       <c r="DM38" t="n" s="11">
-        <v>2088.0</v>
+        <v>2082.0</v>
       </c>
       <c r="DN38" t="n" s="11">
-        <v>2077.0</v>
+        <v>2070.0</v>
       </c>
       <c r="DO38" t="n" s="11">
-        <v>2087.0</v>
+        <v>2110.0</v>
       </c>
       <c r="DP38" t="n" s="11">
-        <v>2062.0</v>
+        <v>2050.0</v>
       </c>
       <c r="DQ38" t="n" s="11">
-        <v>2085.0</v>
+        <v>2080.0</v>
       </c>
       <c r="DR38" t="n" s="11">
-        <v>2111.0</v>
+        <v>2104.0</v>
       </c>
       <c r="DS38" t="n" s="11">
-        <v>2104.0</v>
+        <v>2126.0</v>
       </c>
       <c r="DT38" t="n" s="11">
-        <v>2201.0</v>
+        <v>2190.0</v>
       </c>
       <c r="DU38" t="n" s="11">
-        <v>2178.0</v>
+        <v>2174.0</v>
       </c>
       <c r="DV38" t="n" s="11">
-        <v>2195.0</v>
+        <v>2198.0</v>
+      </c>
+      <c r="DW38" t="n" s="11">
+        <v>2222.0</v>
+      </c>
+      <c r="DX38" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY38" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ38" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="12">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="13">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:DV2"/>
-    <mergeCell ref="A3:DV3"/>
+    <mergeCell ref="A2:DZ2"/>
+    <mergeCell ref="A3:DZ3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:F4"/>
@@ -14900,14 +15348,15 @@
     <mergeCell ref="DK4:DN4"/>
     <mergeCell ref="DO4:DR4"/>
     <mergeCell ref="DS4:DV4"/>
-    <mergeCell ref="A6:DV6"/>
-    <mergeCell ref="A17:DV17"/>
-    <mergeCell ref="A28:DV28"/>
-    <mergeCell ref="A1:DV1"/>
+    <mergeCell ref="DW4:DZ4"/>
+    <mergeCell ref="A6:DZ6"/>
+    <mergeCell ref="A17:DZ17"/>
+    <mergeCell ref="A28:DZ28"/>
+    <mergeCell ref="A1:DZ1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:16:59&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:53:48&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/National accounts - Compensation of employees(national concept) quarters.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - Compensation of employees(national concept) quarters.xlsx
@@ -190,7 +190,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:53:42</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:09:06</t>
   </si>
 </sst>
 </file>
@@ -15356,7 +15356,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:53:48&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:09:12&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>